--- a/config_Release/fish_3d_caijin_config.xlsx
+++ b/config_Release/fish_3d_caijin_config.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'award|奖品配置'!$A$1:$J$193</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -138,10 +138,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_money</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>discount_fish_coin</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -171,10 +167,6 @@
   </si>
   <si>
     <t>30000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -522,11 +514,319 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>350000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>120000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>260000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>350000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>3000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>500000</t>
+    <t>1280000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>660000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6080000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8060000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>11800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>25600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>31800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>45000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>150000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>66000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -534,155 +834,485 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>2180000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1280000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1120</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4680000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>150000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>90000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>63000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>48000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>73800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>98000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>216000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*1280000</t>
+  </si>
+  <si>
+    <t>鱼币*80000</t>
+  </si>
+  <si>
+    <t>鱼币*50000</t>
+  </si>
+  <si>
+    <t>鱼币*30000</t>
+  </si>
+  <si>
+    <t>鱼币*20000</t>
+  </si>
+  <si>
+    <t>鱼币*10000</t>
+  </si>
+  <si>
+    <t>100福利券</t>
+  </si>
+  <si>
+    <t>鱼币*250000</t>
+  </si>
+  <si>
+    <t>鱼币*100000</t>
+  </si>
+  <si>
+    <t>鱼币*60000</t>
+  </si>
+  <si>
+    <t>锁定*3</t>
+  </si>
+  <si>
+    <t>50福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*50</t>
+  </si>
+  <si>
+    <t>300福利券</t>
+  </si>
+  <si>
+    <t>鱼币*300000</t>
+  </si>
+  <si>
+    <t>鱼币*200000</t>
+  </si>
+  <si>
+    <t>鱼币*180000</t>
+  </si>
+  <si>
+    <t>鱼币*150000</t>
+  </si>
+  <si>
+    <t>500福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*350</t>
+  </si>
+  <si>
+    <t>鱼币*1000000</t>
+  </si>
+  <si>
+    <t>鱼币*800000</t>
+  </si>
+  <si>
+    <t>鱼币*560000</t>
+  </si>
+  <si>
+    <t>鱼币*120000</t>
+  </si>
+  <si>
+    <t>1000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*1000</t>
+  </si>
+  <si>
+    <t>鱼币*4000000</t>
+  </si>
+  <si>
+    <t>鱼币*2000000</t>
+  </si>
+  <si>
+    <t>鱼币*600000</t>
+  </si>
+  <si>
+    <t>鱼币*500000</t>
+  </si>
+  <si>
+    <t>鱼币*280000</t>
+  </si>
+  <si>
+    <t>3000福利券</t>
+  </si>
+  <si>
+    <t>鱼币*5000000</t>
+  </si>
+  <si>
+    <t>鱼币*3000000</t>
+  </si>
+  <si>
+    <t>鱼币*1080000</t>
+  </si>
+  <si>
+    <t>鱼币*660000</t>
+  </si>
+  <si>
+    <t>鱼币*400000</t>
+  </si>
+  <si>
+    <t>鱼币*350000</t>
+  </si>
+  <si>
+    <t>鱼币*260000</t>
+  </si>
+  <si>
+    <t>话费碎片*100</t>
+  </si>
+  <si>
+    <t>鱼币*1500000</t>
+  </si>
+  <si>
+    <t>鱼币*1200000</t>
+  </si>
+  <si>
+    <t>2000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*200</t>
+  </si>
+  <si>
+    <t>5000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*500</t>
+  </si>
+  <si>
+    <t>鱼币*8000000</t>
+  </si>
+  <si>
+    <t>鱼币*6000000</t>
+  </si>
+  <si>
+    <t>鱼币*2600000</t>
+  </si>
+  <si>
+    <t>8000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*2500</t>
+  </si>
+  <si>
+    <t>鱼币*15000000</t>
+  </si>
+  <si>
+    <t>鱼币*10000000</t>
+  </si>
+  <si>
+    <t>鱼币*5600000</t>
+  </si>
+  <si>
+    <t>鱼币*4500000</t>
+  </si>
+  <si>
+    <t>15000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*5000</t>
+  </si>
+  <si>
+    <t>鱼币*40000000</t>
+  </si>
+  <si>
+    <t>鱼币*25000000</t>
+  </si>
+  <si>
+    <t>鱼币*18000000</t>
+  </si>
+  <si>
+    <t>鱼币*12000000</t>
+  </si>
+  <si>
+    <t>鱼币*8600000</t>
+  </si>
+  <si>
+    <t>鱼币*7500000</t>
+  </si>
+  <si>
+    <t>话费碎片*400</t>
+  </si>
+  <si>
+    <t>鱼币*2500000</t>
+  </si>
+  <si>
+    <t>鱼币*1800000</t>
+  </si>
+  <si>
+    <t>10000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*800</t>
+  </si>
+  <si>
+    <t>鱼币*20000000</t>
+  </si>
+  <si>
+    <t>鱼币*8060000</t>
+  </si>
+  <si>
+    <t>鱼币*6080000</t>
+  </si>
+  <si>
+    <t>30000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*1300</t>
+  </si>
+  <si>
+    <t>鱼币*50000000</t>
+  </si>
+  <si>
+    <t>鱼币*30000000</t>
+  </si>
+  <si>
+    <t>鱼币*15800000</t>
+  </si>
+  <si>
+    <t>鱼币*11800000</t>
+  </si>
+  <si>
+    <t>鱼币*7000000</t>
+  </si>
+  <si>
+    <t>50000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*3500</t>
+  </si>
+  <si>
+    <t>鱼币*80000000</t>
+  </si>
+  <si>
+    <t>鱼币*60000000</t>
+  </si>
+  <si>
+    <t>鱼币*31800000</t>
+  </si>
+  <si>
+    <t>鱼币*25600000</t>
+  </si>
+  <si>
+    <t>鱼币*12800000</t>
+  </si>
+  <si>
+    <t>80000福利券</t>
+  </si>
+  <si>
+    <t>鱼币*100000000</t>
+  </si>
+  <si>
+    <t>鱼币*50800000</t>
+  </si>
+  <si>
+    <t>鱼币*45000000</t>
+  </si>
+  <si>
+    <t>100000福利券</t>
+  </si>
+  <si>
+    <t>鱼币*300000000</t>
+  </si>
+  <si>
+    <t>鱼币*200000000</t>
+  </si>
+  <si>
+    <t>鱼币*150000000</t>
+  </si>
+  <si>
+    <t>鱼币*66000000</t>
+  </si>
+  <si>
+    <t>鱼币*3200000</t>
+  </si>
+  <si>
+    <t>鱼币*2180000</t>
+  </si>
+  <si>
+    <t>鱼币*4680000</t>
+  </si>
+  <si>
+    <t>鱼币*13600000</t>
+  </si>
+  <si>
+    <t>鱼币*8800000</t>
+  </si>
+  <si>
+    <t>话费碎片*3000</t>
+  </si>
+  <si>
+    <t>鱼币*90000000</t>
+  </si>
+  <si>
+    <t>鱼币*73800000</t>
+  </si>
+  <si>
+    <t>鱼币*63000000</t>
+  </si>
+  <si>
+    <t>鱼币*48000000</t>
+  </si>
+  <si>
+    <t>150000福利券</t>
+  </si>
+  <si>
+    <t>鱼币*500000000</t>
+  </si>
+  <si>
+    <t>鱼币*216000000</t>
+  </si>
+  <si>
+    <t>鱼币*160000000</t>
+  </si>
+  <si>
+    <t>鱼币*98000000</t>
+  </si>
+  <si>
+    <t>com_icon_yb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_sd</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,22,23,24,25,26,27,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_lock</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>800000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>660000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>880000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1080000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>350000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>120000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>260000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>350000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1280000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4500000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>18000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7500000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000</t>
+    <r>
+      <t>话费碎片*3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -690,643 +1320,26 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1080000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>660000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6080000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8060000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>11800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1300</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>25600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>31800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>45000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>150000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>300000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>66000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2180000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1280000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3200000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1120</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4680000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>25000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>13600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>150000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>90000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>63000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>48000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>73800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>300000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>98000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>216000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_money</t>
-  </si>
-  <si>
-    <t>鱼币*1280000</t>
-  </si>
-  <si>
-    <t>鱼币*80000</t>
-  </si>
-  <si>
-    <t>鱼币*50000</t>
-  </si>
-  <si>
-    <t>鱼币*30000</t>
-  </si>
-  <si>
-    <t>鱼币*20000</t>
-  </si>
-  <si>
-    <t>鱼币*10000</t>
-  </si>
-  <si>
-    <t>100福利券</t>
-  </si>
-  <si>
-    <t>鱼币*250000</t>
-  </si>
-  <si>
-    <t>鱼币*100000</t>
-  </si>
-  <si>
-    <t>鱼币*60000</t>
-  </si>
-  <si>
-    <t>锁定*3</t>
-  </si>
-  <si>
-    <t>50福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*50</t>
-  </si>
-  <si>
-    <t>300福利券</t>
-  </si>
-  <si>
-    <t>鱼币*300000</t>
-  </si>
-  <si>
-    <t>鱼币*200000</t>
-  </si>
-  <si>
-    <t>鱼币*180000</t>
-  </si>
-  <si>
-    <t>鱼币*150000</t>
-  </si>
-  <si>
-    <t>500福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*350</t>
-  </si>
-  <si>
-    <t>鱼币*1000000</t>
+    <t>1200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ls_icon_hb1</t>
+  </si>
+  <si>
+    <t>鱼币*4000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*2500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*1200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>鱼币*800000</t>
-  </si>
-  <si>
-    <t>鱼币*560000</t>
-  </si>
-  <si>
-    <t>鱼币*120000</t>
-  </si>
-  <si>
-    <t>1000福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*1000</t>
-  </si>
-  <si>
-    <t>鱼币*4000000</t>
-  </si>
-  <si>
-    <t>鱼币*2000000</t>
-  </si>
-  <si>
-    <t>鱼币*600000</t>
-  </si>
-  <si>
-    <t>鱼币*500000</t>
-  </si>
-  <si>
-    <t>鱼币*280000</t>
-  </si>
-  <si>
-    <t>3000福利券</t>
-  </si>
-  <si>
-    <t>鱼币*5000000</t>
-  </si>
-  <si>
-    <t>鱼币*3000000</t>
-  </si>
-  <si>
-    <t>鱼币*1080000</t>
-  </si>
-  <si>
-    <t>鱼币*880000</t>
-  </si>
-  <si>
-    <t>鱼币*660000</t>
-  </si>
-  <si>
-    <t>鱼币*400000</t>
-  </si>
-  <si>
-    <t>鱼币*350000</t>
-  </si>
-  <si>
-    <t>鱼币*260000</t>
-  </si>
-  <si>
-    <t>话费碎片*100</t>
-  </si>
-  <si>
-    <t>鱼币*1500000</t>
-  </si>
-  <si>
-    <t>鱼币*1200000</t>
-  </si>
-  <si>
-    <t>2000福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*200</t>
-  </si>
-  <si>
-    <t>5000福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*500</t>
-  </si>
-  <si>
-    <t>鱼币*8000000</t>
-  </si>
-  <si>
-    <t>鱼币*6000000</t>
-  </si>
-  <si>
-    <t>鱼币*2600000</t>
-  </si>
-  <si>
-    <t>8000福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*2500</t>
-  </si>
-  <si>
-    <t>鱼币*15000000</t>
-  </si>
-  <si>
-    <t>鱼币*10000000</t>
-  </si>
-  <si>
-    <t>鱼币*5600000</t>
-  </si>
-  <si>
-    <t>鱼币*4500000</t>
-  </si>
-  <si>
-    <t>15000福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*5000</t>
-  </si>
-  <si>
-    <t>鱼币*40000000</t>
-  </si>
-  <si>
-    <t>鱼币*25000000</t>
-  </si>
-  <si>
-    <t>鱼币*18000000</t>
-  </si>
-  <si>
-    <t>鱼币*12000000</t>
-  </si>
-  <si>
-    <t>鱼币*8600000</t>
-  </si>
-  <si>
-    <t>鱼币*7500000</t>
-  </si>
-  <si>
-    <t>话费碎片*400</t>
-  </si>
-  <si>
-    <t>鱼币*2500000</t>
-  </si>
-  <si>
-    <t>鱼币*1800000</t>
-  </si>
-  <si>
-    <t>10000福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*800</t>
-  </si>
-  <si>
-    <t>鱼币*20000000</t>
-  </si>
-  <si>
-    <t>鱼币*8060000</t>
-  </si>
-  <si>
-    <t>鱼币*6080000</t>
-  </si>
-  <si>
-    <t>30000福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*1300</t>
-  </si>
-  <si>
-    <t>鱼币*50000000</t>
-  </si>
-  <si>
-    <t>鱼币*30000000</t>
-  </si>
-  <si>
-    <t>鱼币*15800000</t>
-  </si>
-  <si>
-    <t>鱼币*11800000</t>
-  </si>
-  <si>
-    <t>鱼币*7000000</t>
-  </si>
-  <si>
-    <t>50000福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*3500</t>
-  </si>
-  <si>
-    <t>鱼币*80000000</t>
-  </si>
-  <si>
-    <t>鱼币*60000000</t>
-  </si>
-  <si>
-    <t>鱼币*31800000</t>
-  </si>
-  <si>
-    <t>鱼币*25600000</t>
-  </si>
-  <si>
-    <t>鱼币*12800000</t>
-  </si>
-  <si>
-    <t>80000福利券</t>
-  </si>
-  <si>
-    <t>鱼币*100000000</t>
-  </si>
-  <si>
-    <t>鱼币*50800000</t>
-  </si>
-  <si>
-    <t>鱼币*45000000</t>
-  </si>
-  <si>
-    <t>100000福利券</t>
-  </si>
-  <si>
-    <t>鱼币*300000000</t>
-  </si>
-  <si>
-    <t>鱼币*200000000</t>
-  </si>
-  <si>
-    <t>鱼币*150000000</t>
-  </si>
-  <si>
-    <t>鱼币*66000000</t>
-  </si>
-  <si>
-    <t>鱼币*3200000</t>
-  </si>
-  <si>
-    <t>鱼币*2180000</t>
-  </si>
-  <si>
-    <t>鱼币*4680000</t>
-  </si>
-  <si>
-    <t>鱼币*13600000</t>
-  </si>
-  <si>
-    <t>鱼币*8800000</t>
-  </si>
-  <si>
-    <t>话费碎片*3000</t>
-  </si>
-  <si>
-    <t>鱼币*90000000</t>
-  </si>
-  <si>
-    <t>鱼币*73800000</t>
-  </si>
-  <si>
-    <t>鱼币*63000000</t>
-  </si>
-  <si>
-    <t>鱼币*48000000</t>
-  </si>
-  <si>
-    <t>150000福利券</t>
-  </si>
-  <si>
-    <t>鱼币*500000000</t>
-  </si>
-  <si>
-    <t>鱼币*216000000</t>
-  </si>
-  <si>
-    <t>鱼币*160000000</t>
-  </si>
-  <si>
-    <t>鱼币*98000000</t>
-  </si>
-  <si>
-    <t>com_icon_yb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_sd</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,22,23,24,25,26,27,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_lock</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1945,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C2" s="1">
         <v>0.05</v>
@@ -1954,10 +1967,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2035,16 +2048,16 @@
         <v>7</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -2265,7 +2278,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I8">
         <v>8</v>
@@ -2458,7 +2471,7 @@
         <v>10</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -2651,7 +2664,7 @@
         <v>8</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -2841,8 +2854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2871,7 +2884,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -2883,19 +2896,19 @@
         <v>13</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -2912,16 +2925,16 @@
         <v>24</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F2" s="17">
         <v>1</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I2" s="17">
         <v>0</v>
@@ -2952,7 +2965,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="17">
         <v>500</v>
@@ -2984,19 +2997,19 @@
         <v>3</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F4" s="17">
         <v>500</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I4" s="17">
         <v>0</v>
@@ -3019,19 +3032,19 @@
         <v>4</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5" s="17">
         <v>500</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I5" s="17">
         <v>0</v>
@@ -3054,19 +3067,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="17">
         <v>1000</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I6" s="17">
         <v>0</v>
@@ -3089,19 +3102,19 @@
         <v>6</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F7" s="17">
         <v>1000</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I7" s="17">
         <v>0</v>
@@ -3124,19 +3137,19 @@
         <v>7</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F8" s="17">
         <v>2800</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="17">
         <v>0</v>
@@ -3159,19 +3172,19 @@
         <v>8</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F9" s="17">
         <v>3699</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="I9" s="17">
         <v>0</v>
@@ -3196,16 +3209,16 @@
         <v>24</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F10" s="22">
         <v>1</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I10" s="22">
         <v>0</v>
@@ -3238,13 +3251,13 @@
         <v>28</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F11" s="22">
         <v>300</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>29</v>
@@ -3272,19 +3285,19 @@
         <v>3</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F12" s="22">
         <v>600</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I12" s="22">
         <v>0</v>
@@ -3310,19 +3323,19 @@
         <v>4</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F13" s="22">
         <v>200</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I13" s="22">
         <v>0</v>
@@ -3347,19 +3360,19 @@
         <v>5</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F14" s="22">
         <v>1000</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I14" s="22">
         <v>0</v>
@@ -3384,19 +3397,19 @@
         <v>6</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F15" s="22">
         <v>1000</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I15" s="22">
         <v>0</v>
@@ -3421,19 +3434,19 @@
         <v>7</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F16" s="22">
         <v>3000</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I16" s="22">
         <v>0</v>
@@ -3458,19 +3471,19 @@
         <v>8</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F17" s="22">
         <v>3899</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="22">
         <v>0</v>
@@ -3498,16 +3511,16 @@
         <v>24</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F18" s="27">
         <v>1</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I18" s="27">
         <v>0</v>
@@ -3540,7 +3553,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="27">
         <v>300</v>
@@ -3574,19 +3587,19 @@
         <v>3</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F20" s="27">
         <v>600</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I20" s="27">
         <v>0</v>
@@ -3611,19 +3624,19 @@
         <v>4</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F21" s="27">
         <v>200</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I21" s="27">
         <v>0</v>
@@ -3648,19 +3661,19 @@
         <v>5</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F22" s="27">
         <v>1000</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I22" s="27">
         <v>0</v>
@@ -3685,19 +3698,19 @@
         <v>6</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F23" s="27">
         <v>1000</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I23" s="27">
         <v>0</v>
@@ -3722,19 +3735,19 @@
         <v>7</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F24" s="27">
         <v>3000</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I24" s="27">
         <v>0</v>
@@ -3759,19 +3772,19 @@
         <v>8</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F25" s="27">
         <v>3899</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I25" s="27">
         <v>0</v>
@@ -3799,16 +3812,16 @@
         <v>24</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" s="31">
         <v>1</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I26" s="31">
         <v>0</v>
@@ -3841,13 +3854,13 @@
         <v>28</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F27" s="31">
         <v>100</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="H27" s="34" t="s">
         <v>29</v>
@@ -3875,19 +3888,19 @@
         <v>3</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F28" s="31">
         <v>300</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I28" s="31">
         <v>0</v>
@@ -3912,19 +3925,19 @@
         <v>4</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F29" s="31">
         <v>200</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I29" s="31">
         <v>0</v>
@@ -3949,19 +3962,19 @@
         <v>5</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F30" s="31">
         <v>2000</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I30" s="31">
         <v>0</v>
@@ -3986,19 +3999,19 @@
         <v>6</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F31" s="31">
         <v>500</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I31" s="31">
         <v>0</v>
@@ -4023,19 +4036,19 @@
         <v>7</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F32" s="31">
         <v>3000</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I32" s="31">
         <v>0</v>
@@ -4060,19 +4073,19 @@
         <v>8</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F33" s="31">
         <v>3899</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I33" s="31">
         <v>0</v>
@@ -4100,16 +4113,16 @@
         <v>24</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -4142,13 +4155,13 @@
         <v>28</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F35">
         <v>500</v>
       </c>
       <c r="G35" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>29</v>
@@ -4176,19 +4189,19 @@
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F36">
         <v>80</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -4213,19 +4226,19 @@
         <v>4</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F37">
         <v>20</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -4250,19 +4263,19 @@
         <v>5</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F38">
         <v>2000</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -4287,19 +4300,19 @@
         <v>6</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F39">
         <v>500</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -4324,19 +4337,19 @@
         <v>7</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F40">
         <v>3000</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4361,19 +4374,19 @@
         <v>8</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F41">
         <v>3899</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4401,16 +4414,16 @@
         <v>24</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F42" s="31">
         <v>1</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="H42" s="34" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I42" s="31">
         <v>0</v>
@@ -4421,7 +4434,7 @@
       </c>
       <c r="L42" s="25">
         <f>SUM(K42:K49)/10000</f>
-        <v>1139250</v>
+        <v>1128250</v>
       </c>
       <c r="M42" s="43">
         <v>1140000</v>
@@ -4443,13 +4456,13 @@
         <v>28</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="F43" s="31">
         <v>500</v>
       </c>
-      <c r="G43" s="31" t="s">
-        <v>27</v>
+      <c r="G43" s="34" t="s">
+        <v>345</v>
       </c>
       <c r="H43" s="34" t="s">
         <v>29</v>
@@ -4459,7 +4472,7 @@
       </c>
       <c r="K43" s="20">
         <f>E43/10*10000*F43</f>
-        <v>4500000000</v>
+        <v>1500000000</v>
       </c>
       <c r="L43" s="43"/>
       <c r="M43" s="43"/>
@@ -4477,19 +4490,19 @@
         <v>3</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="F44" s="31">
         <v>80</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I44" s="31">
         <v>0</v>
@@ -4514,26 +4527,26 @@
         <v>4</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="F45" s="31">
         <v>20</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>272</v>
+        <v>349</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I45" s="31">
         <v>0</v>
       </c>
       <c r="K45" s="42">
         <f t="shared" ref="K45:K49" si="7">E45*F45</f>
-        <v>60000000</v>
+        <v>80000000</v>
       </c>
       <c r="L45" s="43"/>
       <c r="M45" s="43"/>
@@ -4551,26 +4564,26 @@
         <v>5</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>129</v>
+        <v>346</v>
       </c>
       <c r="F46" s="31">
         <v>1500</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="H46" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I46" s="31">
         <v>0</v>
       </c>
       <c r="K46" s="42">
         <f t="shared" si="7"/>
-        <v>1620000000</v>
+        <v>3750000000</v>
       </c>
       <c r="L46" s="43"/>
       <c r="M46" s="43"/>
@@ -4588,26 +4601,26 @@
         <v>6</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>128</v>
+        <v>347</v>
       </c>
       <c r="F47" s="31">
         <v>1000</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>274</v>
+        <v>351</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I47" s="31">
         <v>0</v>
       </c>
       <c r="K47" s="42">
         <f t="shared" si="7"/>
-        <v>880000000</v>
+        <v>1200000000</v>
       </c>
       <c r="L47" s="43"/>
       <c r="M47" s="43"/>
@@ -4625,26 +4638,26 @@
         <v>7</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>127</v>
+        <v>344</v>
       </c>
       <c r="F48" s="31">
         <v>3000</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>275</v>
+        <v>352</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I48" s="31">
         <v>0</v>
       </c>
       <c r="K48" s="42">
         <f t="shared" si="7"/>
-        <v>1980000000</v>
+        <v>2400000000</v>
       </c>
       <c r="L48" s="43"/>
       <c r="M48" s="43"/>
@@ -4662,19 +4675,19 @@
         <v>8</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F49" s="31">
         <v>3899</v>
       </c>
       <c r="G49" s="34" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H49" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I49" s="31">
         <v>0</v>
@@ -4702,16 +4715,16 @@
         <v>24</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4744,13 +4757,13 @@
         <v>28</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F51">
         <v>500</v>
       </c>
       <c r="G51" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>29</v>
@@ -4777,19 +4790,19 @@
         <v>3</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F52">
         <v>500</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -4813,19 +4826,19 @@
         <v>4</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F53">
         <v>500</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -4849,19 +4862,19 @@
         <v>5</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F54">
         <v>1000</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -4885,19 +4898,19 @@
         <v>6</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F55">
         <v>1000</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -4921,19 +4934,19 @@
         <v>7</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F56">
         <v>2800</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -4957,19 +4970,19 @@
         <v>8</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F57">
         <v>2800</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -4996,16 +5009,16 @@
         <v>24</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F58" s="31">
         <v>1</v>
       </c>
       <c r="G58" s="34" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H58" s="34" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I58" s="31">
         <v>0</v>
@@ -5038,13 +5051,13 @@
         <v>28</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F59" s="31">
         <v>300</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H59" s="34" t="s">
         <v>29</v>
@@ -5072,19 +5085,19 @@
         <v>3</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F60" s="31">
         <v>600</v>
       </c>
       <c r="G60" s="34" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H60" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I60" s="31">
         <v>0</v>
@@ -5109,19 +5122,19 @@
         <v>4</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F61" s="31">
         <v>200</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="H61" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I61" s="31">
         <v>0</v>
@@ -5146,19 +5159,19 @@
         <v>5</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="31">
         <v>1000</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="H62" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I62" s="31">
         <v>0</v>
@@ -5183,19 +5196,19 @@
         <v>6</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F63" s="31">
         <v>1000</v>
       </c>
       <c r="G63" s="34" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I63" s="31">
         <v>0</v>
@@ -5220,19 +5233,19 @@
         <v>7</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F64" s="31">
         <v>3000</v>
       </c>
       <c r="G64" s="34" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H64" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I64" s="31">
         <v>0</v>
@@ -5257,19 +5270,19 @@
         <v>8</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F65" s="31">
         <v>3899</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I65" s="31">
         <v>0</v>
@@ -5297,16 +5310,16 @@
         <v>24</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -5339,13 +5352,13 @@
         <v>28</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F67">
         <v>300</v>
       </c>
       <c r="G67" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>29</v>
@@ -5372,19 +5385,19 @@
         <v>3</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F68">
         <v>600</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -5408,19 +5421,19 @@
         <v>4</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F69">
         <v>200</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -5444,19 +5457,19 @@
         <v>5</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F70">
         <v>1000</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -5480,19 +5493,19 @@
         <v>6</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F71">
         <v>1000</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -5516,19 +5529,19 @@
         <v>7</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F72">
         <v>3000</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -5552,19 +5565,19 @@
         <v>8</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F73">
         <v>3899</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -5591,16 +5604,16 @@
         <v>24</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F74" s="31">
         <v>1</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="H74" s="34" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I74" s="31">
         <v>0</v>
@@ -5633,13 +5646,13 @@
         <v>28</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F75" s="31">
         <v>100</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="H75" s="34" t="s">
         <v>29</v>
@@ -5667,19 +5680,19 @@
         <v>3</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F76" s="31">
         <v>300</v>
       </c>
       <c r="G76" s="34" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="H76" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I76" s="31">
         <v>0</v>
@@ -5704,19 +5717,19 @@
         <v>4</v>
       </c>
       <c r="D77" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F77" s="31">
         <v>200</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H77" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I77" s="31">
         <v>0</v>
@@ -5741,19 +5754,19 @@
         <v>5</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E78" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F78" s="31">
         <v>1500</v>
       </c>
       <c r="G78" s="34" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H78" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I78" s="31">
         <v>0</v>
@@ -5778,19 +5791,19 @@
         <v>6</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F79" s="31">
         <v>1000</v>
       </c>
       <c r="G79" s="34" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H79" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I79" s="31">
         <v>0</v>
@@ -5815,19 +5828,19 @@
         <v>7</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F80" s="31">
         <v>3000</v>
       </c>
       <c r="G80" s="34" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="H80" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I80" s="31">
         <v>0</v>
@@ -5852,19 +5865,19 @@
         <v>8</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F81" s="31">
         <v>3899</v>
       </c>
       <c r="G81" s="34" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H81" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I81" s="31">
         <v>0</v>
@@ -5892,16 +5905,16 @@
         <v>24</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -5934,13 +5947,13 @@
         <v>28</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F83">
         <v>500</v>
       </c>
       <c r="G83" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>29</v>
@@ -5967,19 +5980,19 @@
         <v>3</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F84">
         <v>50</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -6003,19 +6016,19 @@
         <v>4</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F85">
         <v>50</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -6039,19 +6052,19 @@
         <v>5</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F86">
         <v>1500</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -6075,19 +6088,19 @@
         <v>6</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F87">
         <v>1000</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -6111,19 +6124,19 @@
         <v>7</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F88">
         <v>3000</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -6147,19 +6160,19 @@
         <v>8</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F89">
         <v>3899</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -6186,16 +6199,16 @@
         <v>24</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F90" s="31">
         <v>1</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="H90" s="34" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I90" s="31">
         <v>0</v>
@@ -6228,13 +6241,13 @@
         <v>28</v>
       </c>
       <c r="E91" s="33" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F91" s="31">
         <v>500</v>
       </c>
       <c r="G91" s="31" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="H91" s="34" t="s">
         <v>29</v>
@@ -6262,19 +6275,19 @@
         <v>3</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F92" s="31">
         <v>50</v>
       </c>
       <c r="G92" s="34" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="H92" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I92" s="31">
         <v>0</v>
@@ -6299,19 +6312,19 @@
         <v>4</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F93" s="31">
         <v>50</v>
       </c>
       <c r="G93" s="34" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="H93" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I93" s="31">
         <v>0</v>
@@ -6336,19 +6349,19 @@
         <v>5</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F94" s="31">
         <v>1500</v>
       </c>
       <c r="G94" s="34" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="H94" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I94" s="31">
         <v>0</v>
@@ -6373,19 +6386,19 @@
         <v>6</v>
       </c>
       <c r="D95" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E95" s="33" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F95" s="31">
         <v>1000</v>
       </c>
       <c r="G95" s="34" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="H95" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I95" s="31">
         <v>0</v>
@@ -6410,19 +6423,19 @@
         <v>7</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F96" s="31">
         <v>3000</v>
       </c>
       <c r="G96" s="34" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="H96" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I96" s="31">
         <v>0</v>
@@ -6447,19 +6460,19 @@
         <v>8</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F97" s="31">
         <v>3899</v>
       </c>
       <c r="G97" s="34" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H97" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I97" s="31">
         <v>0</v>
@@ -6487,16 +6500,16 @@
         <v>24</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F98" s="13">
         <v>1</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I98" s="13">
         <v>0</v>
@@ -6529,13 +6542,13 @@
         <v>28</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F99" s="13">
         <v>500</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="H99" s="16" t="s">
         <v>29</v>
@@ -6563,19 +6576,19 @@
         <v>3</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F100" s="13">
         <v>800</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I100" s="13">
         <v>0</v>
@@ -6600,19 +6613,19 @@
         <v>4</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F101" s="13">
         <v>200</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H101" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I101" s="13">
         <v>0</v>
@@ -6637,19 +6650,19 @@
         <v>5</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F102" s="13">
         <v>1000</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I102" s="13">
         <v>0</v>
@@ -6674,19 +6687,19 @@
         <v>6</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F103" s="13">
         <v>1000</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I103" s="13">
         <v>0</v>
@@ -6711,19 +6724,19 @@
         <v>7</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F104" s="13">
         <v>2800</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H104" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I104" s="13">
         <v>0</v>
@@ -6748,19 +6761,19 @@
         <v>8</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F105" s="13">
         <v>2800</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I105" s="13">
         <v>0</v>
@@ -6788,16 +6801,16 @@
         <v>24</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F106" s="31">
         <v>1</v>
       </c>
       <c r="G106" s="34" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="H106" s="34" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I106" s="31">
         <v>0</v>
@@ -6830,13 +6843,13 @@
         <v>28</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F107" s="31">
         <v>300</v>
       </c>
       <c r="G107" s="34" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="H107" s="34" t="s">
         <v>29</v>
@@ -6864,19 +6877,19 @@
         <v>3</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F108" s="31">
         <v>600</v>
       </c>
       <c r="G108" s="34" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="H108" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I108" s="31">
         <v>0</v>
@@ -6901,19 +6914,19 @@
         <v>4</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E109" s="33" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F109" s="31">
         <v>200</v>
       </c>
       <c r="G109" s="34" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="H109" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I109" s="31">
         <v>0</v>
@@ -6938,19 +6951,19 @@
         <v>5</v>
       </c>
       <c r="D110" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E110" s="33" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F110" s="31">
         <v>1000</v>
       </c>
       <c r="G110" s="34" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="H110" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I110" s="31">
         <v>0</v>
@@ -6975,19 +6988,19 @@
         <v>6</v>
       </c>
       <c r="D111" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E111" s="33" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F111" s="31">
         <v>1000</v>
       </c>
       <c r="G111" s="34" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="H111" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I111" s="31">
         <v>0</v>
@@ -7012,19 +7025,19 @@
         <v>7</v>
       </c>
       <c r="D112" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E112" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F112" s="31">
         <v>3000</v>
       </c>
       <c r="G112" s="34" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H112" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I112" s="31">
         <v>0</v>
@@ -7049,19 +7062,19 @@
         <v>8</v>
       </c>
       <c r="D113" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E113" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F113" s="31">
         <v>3899</v>
       </c>
       <c r="G113" s="34" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H113" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I113" s="31">
         <v>0</v>
@@ -7089,16 +7102,16 @@
         <v>24</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F114" s="13">
         <v>1</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="H114" s="16" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I114" s="13">
         <v>0</v>
@@ -7131,13 +7144,13 @@
         <v>28</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F115" s="13">
         <v>300</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H115" s="16" t="s">
         <v>29</v>
@@ -7165,19 +7178,19 @@
         <v>3</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F116" s="13">
         <v>600</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H116" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I116" s="13">
         <v>0</v>
@@ -7202,19 +7215,19 @@
         <v>4</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F117" s="13">
         <v>200</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="H117" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I117" s="13">
         <v>0</v>
@@ -7239,19 +7252,19 @@
         <v>5</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F118" s="13">
         <v>1000</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="H118" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I118" s="13">
         <v>0</v>
@@ -7276,19 +7289,19 @@
         <v>6</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F119" s="13">
         <v>1000</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H119" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I119" s="13">
         <v>0</v>
@@ -7313,19 +7326,19 @@
         <v>7</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F120" s="13">
         <v>3000</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H120" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I120" s="13">
         <v>0</v>
@@ -7350,19 +7363,19 @@
         <v>8</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F121" s="13">
         <v>3899</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="H121" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I121" s="13">
         <v>0</v>
@@ -7390,16 +7403,16 @@
         <v>24</v>
       </c>
       <c r="E122" s="33" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F122" s="31">
         <v>1</v>
       </c>
       <c r="G122" s="34" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="H122" s="34" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I122" s="31">
         <v>0</v>
@@ -7432,13 +7445,13 @@
         <v>28</v>
       </c>
       <c r="E123" s="33" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F123" s="31">
         <v>100</v>
       </c>
       <c r="G123" s="34" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="H123" s="34" t="s">
         <v>29</v>
@@ -7466,19 +7479,19 @@
         <v>3</v>
       </c>
       <c r="D124" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F124" s="31">
         <v>300</v>
       </c>
       <c r="G124" s="34" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="H124" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I124" s="31">
         <v>0</v>
@@ -7503,19 +7516,19 @@
         <v>4</v>
       </c>
       <c r="D125" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E125" s="33" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F125" s="31">
         <v>200</v>
       </c>
       <c r="G125" s="34" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="H125" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I125" s="31">
         <v>0</v>
@@ -7540,19 +7553,19 @@
         <v>5</v>
       </c>
       <c r="D126" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E126" s="33" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F126" s="31">
         <v>1500</v>
       </c>
       <c r="G126" s="34" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="H126" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I126" s="31">
         <v>0</v>
@@ -7577,19 +7590,19 @@
         <v>6</v>
       </c>
       <c r="D127" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E127" s="33" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F127" s="31">
         <v>1000</v>
       </c>
       <c r="G127" s="34" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="H127" s="34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I127" s="31">
         <v>0</v>
@@ -7614,19 +7627,19 @@
         <v>7</v>
       </c>
       <c r="D128" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F128" s="31">
         <v>3000</v>
       </c>
       <c r="G128" s="34" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="H128" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I128" s="31">
         <v>0</v>
@@ -7651,19 +7664,19 @@
         <v>8</v>
       </c>
       <c r="D129" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F129" s="31">
         <v>3899</v>
       </c>
       <c r="G129" s="34" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="H129" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I129" s="31">
         <v>0</v>
@@ -7691,16 +7704,16 @@
         <v>24</v>
       </c>
       <c r="E130" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F130" s="13">
         <v>1</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="H130" s="16" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I130" s="13">
         <v>0</v>
@@ -7733,13 +7746,13 @@
         <v>28</v>
       </c>
       <c r="E131" s="15" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F131" s="13">
         <v>500</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="H131" s="16" t="s">
         <v>29</v>
@@ -7767,19 +7780,19 @@
         <v>3</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F132" s="13">
         <v>80</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H132" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I132" s="13">
         <v>0</v>
@@ -7804,19 +7817,19 @@
         <v>4</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F133" s="13">
         <v>20</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="H133" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I133" s="13">
         <v>0</v>
@@ -7841,19 +7854,19 @@
         <v>5</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F134" s="13">
         <v>1500</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="H134" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I134" s="13">
         <v>0</v>
@@ -7878,19 +7891,19 @@
         <v>6</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F135" s="13">
         <v>1000</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="H135" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I135" s="13">
         <v>0</v>
@@ -7915,19 +7928,19 @@
         <v>7</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F136" s="13">
         <v>3000</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="H136" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I136" s="13">
         <v>0</v>
@@ -7952,19 +7965,19 @@
         <v>8</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E137" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F137" s="13">
         <v>3899</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="H137" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I137" s="13">
         <v>0</v>
@@ -7992,16 +8005,16 @@
         <v>24</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F138" s="31">
         <v>1</v>
       </c>
       <c r="G138" s="34" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="H138" s="34" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I138" s="31">
         <v>0</v>
@@ -8035,7 +8048,7 @@
         <v>28</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F139" s="31">
         <v>500</v>
@@ -8069,19 +8082,19 @@
         <v>3</v>
       </c>
       <c r="D140" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F140" s="31">
         <v>80</v>
       </c>
       <c r="G140" s="34" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H140" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I140" s="31">
         <v>0</v>
@@ -8106,19 +8119,19 @@
         <v>4</v>
       </c>
       <c r="D141" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F141" s="31">
         <v>20</v>
       </c>
       <c r="G141" s="34" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H141" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I141" s="31">
         <v>0</v>
@@ -8143,19 +8156,19 @@
         <v>5</v>
       </c>
       <c r="D142" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F142" s="31">
         <v>1500</v>
       </c>
       <c r="G142" s="34" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H142" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I142" s="31">
         <v>0</v>
@@ -8180,19 +8193,19 @@
         <v>6</v>
       </c>
       <c r="D143" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F143" s="31">
         <v>1000</v>
       </c>
       <c r="G143" s="34" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H143" s="34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I143" s="31">
         <v>0</v>
@@ -8217,19 +8230,19 @@
         <v>7</v>
       </c>
       <c r="D144" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F144" s="31">
         <v>3000</v>
       </c>
       <c r="G144" s="34" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="H144" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I144" s="31">
         <v>0</v>
@@ -8254,19 +8267,19 @@
         <v>8</v>
       </c>
       <c r="D145" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F145" s="31">
         <v>3899</v>
       </c>
       <c r="G145" s="34" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="H145" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I145" s="31">
         <v>0</v>
@@ -8294,16 +8307,16 @@
         <v>24</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F146">
         <v>1</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -8336,13 +8349,13 @@
         <v>28</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F147">
         <v>500</v>
       </c>
       <c r="G147" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="H147" s="4" t="s">
         <v>29</v>
@@ -8369,19 +8382,19 @@
         <v>3</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F148">
         <v>500</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -8405,19 +8418,19 @@
         <v>4</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F149">
         <v>500</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -8441,19 +8454,19 @@
         <v>5</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F150">
         <v>1000</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -8477,19 +8490,19 @@
         <v>6</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F151">
         <v>1000</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -8513,19 +8526,19 @@
         <v>7</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F152">
         <v>2800</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -8549,19 +8562,19 @@
         <v>8</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F153">
         <v>3699</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -8588,16 +8601,16 @@
         <v>24</v>
       </c>
       <c r="E154" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F154" s="31">
         <v>1</v>
       </c>
       <c r="G154" s="34" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H154" s="34" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I154" s="31">
         <v>0</v>
@@ -8630,13 +8643,13 @@
         <v>28</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F155" s="31">
         <v>300</v>
       </c>
       <c r="G155" s="31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H155" s="34" t="s">
         <v>29</v>
@@ -8664,19 +8677,19 @@
         <v>3</v>
       </c>
       <c r="D156" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F156" s="31">
         <v>600</v>
       </c>
       <c r="G156" s="34" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="H156" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I156" s="31">
         <v>0</v>
@@ -8701,19 +8714,19 @@
         <v>4</v>
       </c>
       <c r="D157" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E157" s="33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F157" s="31">
         <v>200</v>
       </c>
       <c r="G157" s="34" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="H157" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I157" s="31">
         <v>0</v>
@@ -8738,19 +8751,19 @@
         <v>5</v>
       </c>
       <c r="D158" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E158" s="33" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F158" s="31">
         <v>1000</v>
       </c>
       <c r="G158" s="34" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="H158" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I158" s="31">
         <v>0</v>
@@ -8775,19 +8788,19 @@
         <v>6</v>
       </c>
       <c r="D159" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E159" s="33" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F159" s="31">
         <v>1000</v>
       </c>
       <c r="G159" s="34" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="H159" s="34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I159" s="31">
         <v>0</v>
@@ -8812,19 +8825,19 @@
         <v>7</v>
       </c>
       <c r="D160" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E160" s="33" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F160" s="31">
         <v>3000</v>
       </c>
       <c r="G160" s="34" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="H160" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I160" s="31">
         <v>0</v>
@@ -8849,19 +8862,19 @@
         <v>8</v>
       </c>
       <c r="D161" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E161" s="33" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F161" s="31">
         <v>3899</v>
       </c>
       <c r="G161" s="34" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="H161" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I161" s="31">
         <v>0</v>
@@ -8889,16 +8902,16 @@
         <v>24</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F162">
         <v>1</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -8931,13 +8944,13 @@
         <v>28</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F163">
         <v>300</v>
       </c>
       <c r="G163" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="H163" s="4" t="s">
         <v>29</v>
@@ -8964,19 +8977,19 @@
         <v>3</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F164">
         <v>600</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -9000,19 +9013,19 @@
         <v>4</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F165">
         <v>200</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -9036,19 +9049,19 @@
         <v>5</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F166">
         <v>1000</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -9072,19 +9085,19 @@
         <v>6</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F167">
         <v>1000</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -9108,19 +9121,19 @@
         <v>7</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F168">
         <v>3000</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -9144,19 +9157,19 @@
         <v>8</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F169">
         <v>3899</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -9183,16 +9196,16 @@
         <v>24</v>
       </c>
       <c r="E170" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F170" s="31">
         <v>1</v>
       </c>
       <c r="G170" s="34" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="H170" s="34" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I170" s="31">
         <v>0</v>
@@ -9225,13 +9238,13 @@
         <v>28</v>
       </c>
       <c r="E171" s="33" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F171" s="31">
         <v>100</v>
       </c>
       <c r="G171" s="31" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="H171" s="34" t="s">
         <v>29</v>
@@ -9259,19 +9272,19 @@
         <v>3</v>
       </c>
       <c r="D172" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E172" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F172" s="31">
         <v>300</v>
       </c>
       <c r="G172" s="34" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="H172" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I172" s="31">
         <v>0</v>
@@ -9296,19 +9309,19 @@
         <v>4</v>
       </c>
       <c r="D173" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E173" s="33" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F173" s="31">
         <v>200</v>
       </c>
       <c r="G173" s="34" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="H173" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I173" s="31">
         <v>0</v>
@@ -9333,19 +9346,19 @@
         <v>5</v>
       </c>
       <c r="D174" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E174" s="33" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F174" s="31">
         <v>1500</v>
       </c>
       <c r="G174" s="34" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H174" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I174" s="31">
         <v>0</v>
@@ -9370,19 +9383,19 @@
         <v>6</v>
       </c>
       <c r="D175" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E175" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F175" s="31">
         <v>1000</v>
       </c>
       <c r="G175" s="34" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="H175" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I175" s="31">
         <v>0</v>
@@ -9407,19 +9420,19 @@
         <v>7</v>
       </c>
       <c r="D176" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E176" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F176" s="31">
         <v>3000</v>
       </c>
       <c r="G176" s="34" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="H176" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I176" s="31">
         <v>0</v>
@@ -9444,19 +9457,19 @@
         <v>8</v>
       </c>
       <c r="D177" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E177" s="33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F177" s="31">
         <v>3899</v>
       </c>
       <c r="G177" s="34" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="H177" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I177" s="31">
         <v>0</v>
@@ -9484,16 +9497,16 @@
         <v>24</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F178">
         <v>1</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -9526,13 +9539,13 @@
         <v>28</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F179">
         <v>500</v>
       </c>
       <c r="G179" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="H179" s="4" t="s">
         <v>29</v>
@@ -9559,19 +9572,19 @@
         <v>3</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F180">
         <v>50</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -9595,19 +9608,19 @@
         <v>4</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F181">
         <v>50</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -9631,19 +9644,19 @@
         <v>5</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F182">
         <v>1000</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -9667,19 +9680,19 @@
         <v>6</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F183">
         <v>1500</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -9703,19 +9716,19 @@
         <v>7</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F184">
         <v>3000</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -9739,19 +9752,19 @@
         <v>8</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F185">
         <v>3899</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I185">
         <v>0</v>
@@ -9775,19 +9788,19 @@
         <v>1</v>
       </c>
       <c r="D186" s="32" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E186" s="33" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F186" s="31">
         <v>1</v>
       </c>
       <c r="G186" s="34" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="H186" s="34" t="s">
-        <v>238</v>
+        <v>348</v>
       </c>
       <c r="I186" s="31">
         <v>1</v>
@@ -9821,7 +9834,7 @@
         <v>28</v>
       </c>
       <c r="E187" s="33" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F187" s="31">
         <v>500</v>
@@ -9855,19 +9868,19 @@
         <v>3</v>
       </c>
       <c r="D188" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E188" s="33" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F188" s="31">
         <v>50</v>
       </c>
       <c r="G188" s="34" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="H188" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I188" s="31">
         <v>0</v>
@@ -9892,19 +9905,19 @@
         <v>4</v>
       </c>
       <c r="D189" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E189" s="33" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F189" s="31">
         <v>50</v>
       </c>
       <c r="G189" s="34" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H189" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I189" s="31">
         <v>0</v>
@@ -9929,19 +9942,19 @@
         <v>5</v>
       </c>
       <c r="D190" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E190" s="33" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F190" s="31">
         <v>1000</v>
       </c>
       <c r="G190" s="34" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="H190" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I190" s="31">
         <v>0</v>
@@ -9966,19 +9979,19 @@
         <v>6</v>
       </c>
       <c r="D191" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E191" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F191" s="31">
         <v>1500</v>
       </c>
       <c r="G191" s="34" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H191" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I191" s="31">
         <v>0</v>
@@ -10003,19 +10016,19 @@
         <v>7</v>
       </c>
       <c r="D192" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E192" s="33" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F192" s="31">
         <v>3000</v>
       </c>
       <c r="G192" s="34" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="H192" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I192" s="31">
         <v>0</v>
@@ -10040,19 +10053,19 @@
         <v>8</v>
       </c>
       <c r="D193" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E193" s="33" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F193" s="31">
         <v>3899</v>
       </c>
       <c r="G193" s="34" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="H193" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I193" s="31">
         <v>0</v>

--- a/config_Release/fish_3d_caijin_config.xlsx
+++ b/config_Release/fish_3d_caijin_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -466,103 +466,327 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>350</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>120000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>560000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>280000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>350000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>350000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1280000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>10000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>350</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>120000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>250000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>560000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>280000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>350000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>120000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>260000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>350000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
+    <t>800</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6080000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8060000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>11800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>25600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>31800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>45000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>150000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>66000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -570,11 +794,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>4000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000000</t>
+    <t>2180000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -582,23 +802,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>5000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000</t>
+    <t>3200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1120</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -606,7 +822,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>15000000</t>
+    <t>4680000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -614,271 +834,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>4500000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>18000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7500000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1080000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>660000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6080000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8060000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>11800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1300</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>25600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>31800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>45000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>150000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>300000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>66000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2180000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1280000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3200000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1120</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4680000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>25000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8800000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1340,6 +1296,50 @@
   </si>
   <si>
     <t>鱼币*800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>220000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>118000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>820000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8800000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1409,7 +1409,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1449,6 +1449,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1495,7 +1501,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1642,6 +1648,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1958,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C2" s="1">
         <v>0.05</v>
@@ -2854,8 +2878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2928,24 +2952,24 @@
         <v>95</v>
       </c>
       <c r="F2" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I2" s="17">
         <v>0</v>
       </c>
       <c r="K2" s="20">
         <f>E2/10*10000*F2</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="L2" s="39">
         <f>SUM(K2:K8)/10000</f>
-        <v>14805</v>
+        <v>14800</v>
       </c>
       <c r="M2" s="17">
         <v>15000</v>
@@ -3006,7 +3030,7 @@
         <v>500</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>40</v>
@@ -3041,7 +3065,7 @@
         <v>500</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>40</v>
@@ -3076,7 +3100,7 @@
         <v>1000</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>47</v>
@@ -3111,7 +3135,7 @@
         <v>1000</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>39</v>
@@ -3140,13 +3164,13 @@
         <v>30</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>109</v>
+        <v>342</v>
       </c>
       <c r="F8" s="17">
         <v>2800</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>31</v>
@@ -3172,19 +3196,19 @@
         <v>8</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>96</v>
       </c>
       <c r="F9" s="17">
-        <v>3699</v>
+        <v>3700</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="I9" s="17">
         <v>0</v>
@@ -3212,24 +3236,24 @@
         <v>64</v>
       </c>
       <c r="F10" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I10" s="22">
         <v>0</v>
       </c>
       <c r="K10" s="20">
         <f>E10/10*10000*F10</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="L10" s="25">
         <f>SUM(K10:K17)/10000</f>
-        <v>59207</v>
+        <v>59700</v>
       </c>
       <c r="M10" s="42">
         <v>60000</v>
@@ -3254,10 +3278,10 @@
         <v>68</v>
       </c>
       <c r="F11" s="22">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>29</v>
@@ -3267,7 +3291,7 @@
       </c>
       <c r="K11" s="20">
         <f>E11/10*10000*F11</f>
-        <v>15000000</v>
+        <v>10000000</v>
       </c>
       <c r="L11" s="42"/>
       <c r="M11" s="39"/>
@@ -3294,7 +3318,7 @@
         <v>600</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="H12" s="26" t="s">
         <v>40</v>
@@ -3329,10 +3353,10 @@
         <v>72</v>
       </c>
       <c r="F13" s="22">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="H13" s="26" t="s">
         <v>40</v>
@@ -3342,7 +3366,7 @@
       </c>
       <c r="K13" s="42">
         <f t="shared" ref="K13:K17" si="3">E13*F13</f>
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="L13" s="42"/>
       <c r="M13" s="42"/>
@@ -3369,7 +3393,7 @@
         <v>1000</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="H14" s="26" t="s">
         <v>46</v>
@@ -3406,7 +3430,7 @@
         <v>1000</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="H15" s="26" t="s">
         <v>39</v>
@@ -3443,7 +3467,7 @@
         <v>3000</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="H16" s="26" t="s">
         <v>45</v>
@@ -3477,10 +3501,10 @@
         <v>100</v>
       </c>
       <c r="F17" s="22">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="H17" s="26" t="s">
         <v>31</v>
@@ -3490,7 +3514,7 @@
       </c>
       <c r="K17" s="42">
         <f t="shared" si="3"/>
-        <v>116970000</v>
+        <v>117000000</v>
       </c>
       <c r="L17" s="42"/>
       <c r="M17" s="42"/>
@@ -3511,27 +3535,27 @@
         <v>24</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F18" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I18" s="27">
         <v>0</v>
       </c>
       <c r="K18" s="20">
         <f>E18/10*10000*F18</f>
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="L18" s="25">
         <f>SUM(K18:K25)/10000</f>
-        <v>149220</v>
+        <v>149750</v>
       </c>
       <c r="M18" s="43">
         <v>150000</v>
@@ -3556,7 +3580,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="27">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>26</v>
@@ -3569,7 +3593,7 @@
       </c>
       <c r="K19" s="20">
         <f>E19/10*10000*F19</f>
-        <v>42000000</v>
+        <v>35000000</v>
       </c>
       <c r="L19" s="43"/>
       <c r="M19" s="43"/>
@@ -3596,7 +3620,7 @@
         <v>600</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>40</v>
@@ -3630,10 +3654,10 @@
         <v>106</v>
       </c>
       <c r="F21" s="27">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>40</v>
@@ -3643,7 +3667,7 @@
       </c>
       <c r="K21" s="42">
         <f t="shared" ref="K21:K25" si="4">E21*F21</f>
-        <v>50000000</v>
+        <v>62500000</v>
       </c>
       <c r="L21" s="43"/>
       <c r="M21" s="43"/>
@@ -3670,7 +3694,7 @@
         <v>1000</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H22" s="30" t="s">
         <v>39</v>
@@ -3707,7 +3731,7 @@
         <v>1000</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="H23" s="30" t="s">
         <v>48</v>
@@ -3744,7 +3768,7 @@
         <v>3000</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="H24" s="30" t="s">
         <v>31</v>
@@ -3778,10 +3802,10 @@
         <v>108</v>
       </c>
       <c r="F25" s="27">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="H25" s="30" t="s">
         <v>31</v>
@@ -3791,7 +3815,7 @@
       </c>
       <c r="K25" s="42">
         <f t="shared" si="4"/>
-        <v>389900000</v>
+        <v>390000000</v>
       </c>
       <c r="L25" s="43"/>
       <c r="M25" s="43"/>
@@ -3815,24 +3839,24 @@
         <v>33</v>
       </c>
       <c r="F26" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I26" s="31">
         <v>0</v>
       </c>
       <c r="K26" s="20">
         <f>E26/10*10000*F26</f>
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="L26" s="25">
         <f>SUM(K26:K33)/10000</f>
-        <v>298338</v>
+        <v>299500</v>
       </c>
       <c r="M26" s="43">
         <v>300000</v>
@@ -3854,13 +3878,13 @@
         <v>28</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F27" s="31">
         <v>100</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="H27" s="34" t="s">
         <v>29</v>
@@ -3897,7 +3921,7 @@
         <v>300</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="H28" s="34" t="s">
         <v>40</v>
@@ -3931,10 +3955,10 @@
         <v>58</v>
       </c>
       <c r="F29" s="31">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="H29" s="34" t="s">
         <v>40</v>
@@ -3944,7 +3968,7 @@
       </c>
       <c r="K29" s="42">
         <f t="shared" ref="K29:K33" si="5">E29*F29</f>
-        <v>160000000</v>
+        <v>200000000</v>
       </c>
       <c r="L29" s="43"/>
       <c r="M29" s="43"/>
@@ -3965,13 +3989,13 @@
         <v>30</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F30" s="31">
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="H30" s="34" t="s">
         <v>39</v>
@@ -3981,7 +4005,7 @@
       </c>
       <c r="K30" s="42">
         <f t="shared" si="5"/>
-        <v>1120000000</v>
+        <v>1092000000</v>
       </c>
       <c r="L30" s="43"/>
       <c r="M30" s="43"/>
@@ -4008,7 +4032,7 @@
         <v>500</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="H31" s="34" t="s">
         <v>39</v>
@@ -4039,13 +4063,13 @@
         <v>30</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F32" s="31">
         <v>3000</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="H32" s="34" t="s">
         <v>31</v>
@@ -4076,13 +4100,13 @@
         <v>30</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F33" s="31">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="H33" s="34" t="s">
         <v>31</v>
@@ -4092,7 +4116,7 @@
       </c>
       <c r="K33" s="42">
         <f t="shared" si="5"/>
-        <v>467880000</v>
+        <v>468000000</v>
       </c>
       <c r="L33" s="43"/>
       <c r="M33" s="43"/>
@@ -4113,27 +4137,27 @@
         <v>24</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="K34" s="20">
         <f>E34/10*10000*F34</f>
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="L34" s="25">
         <f>SUM(K34:K41)/10000</f>
-        <v>535272</v>
+        <v>539800</v>
       </c>
       <c r="M34" s="43">
         <v>540000</v>
@@ -4161,7 +4185,7 @@
         <v>500</v>
       </c>
       <c r="G35" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>29</v>
@@ -4198,7 +4222,7 @@
         <v>80</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>40</v>
@@ -4232,10 +4256,10 @@
         <v>55</v>
       </c>
       <c r="F37">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>40</v>
@@ -4245,7 +4269,7 @@
       </c>
       <c r="K37" s="42">
         <f t="shared" ref="K37:K41" si="6">E37*F37</f>
-        <v>40000000</v>
+        <v>120000000</v>
       </c>
       <c r="L37" s="43"/>
       <c r="M37" s="43"/>
@@ -4266,13 +4290,13 @@
         <v>30</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F38">
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>39</v>
@@ -4282,7 +4306,7 @@
       </c>
       <c r="K38" s="42">
         <f t="shared" si="6"/>
-        <v>1600000000</v>
+        <v>1560000000</v>
       </c>
       <c r="L38" s="43"/>
       <c r="M38" s="43"/>
@@ -4303,13 +4327,13 @@
         <v>30</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F39">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>39</v>
@@ -4319,7 +4343,7 @@
       </c>
       <c r="K39" s="42">
         <f t="shared" si="6"/>
-        <v>300000000</v>
+        <v>306000000</v>
       </c>
       <c r="L39" s="43"/>
       <c r="M39" s="43"/>
@@ -4340,13 +4364,13 @@
         <v>30</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F40">
         <v>3000</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>31</v>
@@ -4377,13 +4401,13 @@
         <v>30</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F41">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>31</v>
@@ -4393,50 +4417,50 @@
       </c>
       <c r="K41" s="42">
         <f t="shared" si="6"/>
-        <v>1091720000</v>
+        <v>1092000000</v>
       </c>
       <c r="L41" s="43"/>
       <c r="M41" s="43"/>
     </row>
-    <row r="42" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="17">
+    <row r="42" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="49">
         <v>41</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="50">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="50">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D42" s="32" t="s">
+      <c r="D42" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="F42" s="31">
-        <v>1</v>
-      </c>
-      <c r="G42" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="H42" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="I42" s="31">
-        <v>0</v>
-      </c>
-      <c r="K42" s="20">
+      <c r="E42" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="49">
+        <v>0</v>
+      </c>
+      <c r="G42" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="H42" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="I42" s="49">
+        <v>0</v>
+      </c>
+      <c r="K42" s="52">
         <f>E42/10*10000*F42</f>
-        <v>3000000</v>
-      </c>
-      <c r="L42" s="25">
+        <v>0</v>
+      </c>
+      <c r="L42" s="52">
         <f>SUM(K42:K49)/10000</f>
-        <v>1128250</v>
-      </c>
-      <c r="M42" s="43">
+        <v>1137000</v>
+      </c>
+      <c r="M42" s="54">
         <v>1140000</v>
       </c>
     </row>
@@ -4456,13 +4480,13 @@
         <v>28</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F43" s="31">
         <v>500</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="H43" s="34" t="s">
         <v>29</v>
@@ -4499,7 +4523,7 @@
         <v>80</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="H44" s="34" t="s">
         <v>40</v>
@@ -4533,10 +4557,10 @@
         <v>74</v>
       </c>
       <c r="F45" s="31">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="H45" s="34" t="s">
         <v>40</v>
@@ -4546,7 +4570,7 @@
       </c>
       <c r="K45" s="42">
         <f t="shared" ref="K45:K49" si="7">E45*F45</f>
-        <v>80000000</v>
+        <v>320000000</v>
       </c>
       <c r="L45" s="43"/>
       <c r="M45" s="43"/>
@@ -4567,13 +4591,13 @@
         <v>30</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F46" s="31">
-        <v>1500</v>
+        <v>1440</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="H46" s="34" t="s">
         <v>39</v>
@@ -4583,7 +4607,7 @@
       </c>
       <c r="K46" s="42">
         <f t="shared" si="7"/>
-        <v>3750000000</v>
+        <v>3600000000</v>
       </c>
       <c r="L46" s="43"/>
       <c r="M46" s="43"/>
@@ -4604,13 +4628,13 @@
         <v>30</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F47" s="31">
         <v>1000</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="H47" s="34" t="s">
         <v>54</v>
@@ -4641,13 +4665,13 @@
         <v>30</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="F48" s="31">
         <v>3000</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="H48" s="34" t="s">
         <v>31</v>
@@ -4678,13 +4702,13 @@
         <v>30</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F49" s="31">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="G49" s="34" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H49" s="34" t="s">
         <v>31</v>
@@ -4694,7 +4718,7 @@
       </c>
       <c r="K49" s="42">
         <f t="shared" si="7"/>
-        <v>1949500000</v>
+        <v>1950000000</v>
       </c>
       <c r="L49" s="43"/>
       <c r="M49" s="43"/>
@@ -4715,27 +4739,27 @@
         <v>24</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="K50" s="20">
         <f>E50/10*10000*F50</f>
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="L50" s="25">
         <f>SUM(K50:K57)/10000</f>
-        <v>238930</v>
+        <v>239800</v>
       </c>
       <c r="M50" s="12">
         <v>240000</v>
@@ -4763,7 +4787,7 @@
         <v>500</v>
       </c>
       <c r="G51" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>29</v>
@@ -4793,13 +4817,13 @@
         <v>30</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F52">
         <v>500</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>40</v>
@@ -4835,7 +4859,7 @@
         <v>500</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>40</v>
@@ -4871,7 +4895,7 @@
         <v>1000</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>39</v>
@@ -4901,13 +4925,13 @@
         <v>30</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F55">
         <v>1000</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>53</v>
@@ -4937,13 +4961,13 @@
         <v>30</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>126</v>
+        <v>343</v>
       </c>
       <c r="F56">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>31</v>
@@ -4953,7 +4977,7 @@
       </c>
       <c r="K56" s="42">
         <f t="shared" si="8"/>
-        <v>728000000</v>
+        <v>660000000</v>
       </c>
       <c r="L56" s="43"/>
     </row>
@@ -4973,13 +4997,13 @@
         <v>30</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>125</v>
+        <v>344</v>
       </c>
       <c r="F57">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>31</v>
@@ -4989,7 +5013,7 @@
       </c>
       <c r="K57" s="42">
         <f t="shared" si="8"/>
-        <v>336000000</v>
+        <v>413000000</v>
       </c>
       <c r="L57" s="43"/>
     </row>
@@ -5009,27 +5033,27 @@
         <v>24</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F58" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" s="34" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="H58" s="34" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I58" s="31">
         <v>0</v>
       </c>
       <c r="K58" s="20">
         <f t="shared" ref="K58:K59" si="9">E58/10*10000*F58</f>
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="L58" s="25">
         <f t="shared" ref="L58" si="10">SUM(K58:K65)/10000</f>
-        <v>689565</v>
+        <v>689500</v>
       </c>
       <c r="M58" s="44">
         <v>690000</v>
@@ -5051,13 +5075,13 @@
         <v>28</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F59" s="31">
         <v>300</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H59" s="34" t="s">
         <v>29</v>
@@ -5088,13 +5112,13 @@
         <v>30</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F60" s="31">
         <v>600</v>
       </c>
       <c r="G60" s="34" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="H60" s="34" t="s">
         <v>40</v>
@@ -5131,7 +5155,7 @@
         <v>200</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H61" s="34" t="s">
         <v>40</v>
@@ -5168,7 +5192,7 @@
         <v>1000</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="H62" s="34" t="s">
         <v>39</v>
@@ -5199,13 +5223,13 @@
         <v>30</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F63" s="31">
         <v>1000</v>
       </c>
       <c r="G63" s="34" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="H63" s="34" t="s">
         <v>39</v>
@@ -5236,13 +5260,13 @@
         <v>30</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F64" s="31">
         <v>3000</v>
       </c>
       <c r="G64" s="34" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="H64" s="34" t="s">
         <v>31</v>
@@ -5273,13 +5297,13 @@
         <v>30</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F65" s="31">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="H65" s="34" t="s">
         <v>31</v>
@@ -5289,7 +5313,7 @@
       </c>
       <c r="K65" s="42">
         <f t="shared" si="11"/>
-        <v>1364650000</v>
+        <v>1365000000</v>
       </c>
       <c r="L65" s="43"/>
       <c r="M65" s="44"/>
@@ -5313,24 +5337,24 @@
         <v>34</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="K66" s="20">
         <f t="shared" ref="K66:K67" si="12">E66/10*10000*F66</f>
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="L66" s="25">
         <f t="shared" ref="L66" si="13">SUM(K66:K73)/10000</f>
-        <v>1582120</v>
+        <v>1589800</v>
       </c>
       <c r="M66" s="12">
         <v>1590000</v>
@@ -5352,13 +5376,13 @@
         <v>28</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F67">
         <v>300</v>
       </c>
       <c r="G67" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>29</v>
@@ -5388,13 +5412,13 @@
         <v>30</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F68">
         <v>600</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>40</v>
@@ -5424,13 +5448,13 @@
         <v>30</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F69">
         <v>200</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>40</v>
@@ -5460,13 +5484,13 @@
         <v>30</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F70">
         <v>1000</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>39</v>
@@ -5502,7 +5526,7 @@
         <v>1000</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>54</v>
@@ -5532,13 +5556,13 @@
         <v>30</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F72">
         <v>3000</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>31</v>
@@ -5568,13 +5592,13 @@
         <v>30</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>122</v>
+        <v>345</v>
       </c>
       <c r="F73">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>31</v>
@@ -5584,7 +5608,7 @@
       </c>
       <c r="K73" s="42">
         <f t="shared" si="14"/>
-        <v>3119200000</v>
+        <v>3198000000</v>
       </c>
       <c r="L73" s="43"/>
     </row>
@@ -5604,27 +5628,27 @@
         <v>24</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F74" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="H74" s="34" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I74" s="31">
         <v>0</v>
       </c>
       <c r="K74" s="20">
         <f t="shared" ref="K74:K75" si="15">E74/10*10000*F74</f>
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="L74" s="25">
         <f t="shared" ref="L74" si="16">SUM(K74:K81)/10000</f>
-        <v>3075300</v>
+        <v>3087000</v>
       </c>
       <c r="M74" s="44">
         <v>3090000</v>
@@ -5646,13 +5670,13 @@
         <v>28</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F75" s="31">
         <v>100</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="H75" s="34" t="s">
         <v>29</v>
@@ -5683,13 +5707,13 @@
         <v>30</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>60</v>
+        <v>349</v>
       </c>
       <c r="F76" s="31">
         <v>300</v>
       </c>
       <c r="G76" s="34" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="H76" s="34" t="s">
         <v>40</v>
@@ -5720,13 +5744,13 @@
         <v>30</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="F77" s="31">
         <v>200</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="H77" s="34" t="s">
         <v>40</v>
@@ -5736,7 +5760,7 @@
       </c>
       <c r="K77" s="42">
         <f t="shared" si="19"/>
-        <v>1200000000</v>
+        <v>1320000000</v>
       </c>
       <c r="L77" s="43"/>
       <c r="M77" s="44"/>
@@ -5763,7 +5787,7 @@
         <v>1500</v>
       </c>
       <c r="G78" s="34" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="H78" s="34" t="s">
         <v>39</v>
@@ -5794,13 +5818,13 @@
         <v>30</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>74</v>
+        <v>346</v>
       </c>
       <c r="F79" s="31">
         <v>1000</v>
       </c>
       <c r="G79" s="34" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="H79" s="34" t="s">
         <v>39</v>
@@ -5831,13 +5855,13 @@
         <v>30</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>140</v>
+        <v>347</v>
       </c>
       <c r="F80" s="31">
         <v>3000</v>
       </c>
       <c r="G80" s="34" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="H80" s="34" t="s">
         <v>31</v>
@@ -5868,13 +5892,13 @@
         <v>30</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>141</v>
+        <v>348</v>
       </c>
       <c r="F81" s="31">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="G81" s="34" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="H81" s="34" t="s">
         <v>31</v>
@@ -5884,7 +5908,7 @@
       </c>
       <c r="K81" s="42">
         <f t="shared" si="19"/>
-        <v>7798000000</v>
+        <v>7800000000</v>
       </c>
       <c r="L81" s="43"/>
       <c r="M81" s="44"/>
@@ -5905,27 +5929,27 @@
         <v>24</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="K82" s="20">
         <f t="shared" ref="K82:K83" si="20">E82/10*10000*F82</f>
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="L82" s="25">
         <f t="shared" ref="L82:L130" si="21">SUM(K82:K89)/10000</f>
-        <v>5485350</v>
+        <v>5485000</v>
       </c>
       <c r="M82" s="12">
         <v>5490000</v>
@@ -5947,13 +5971,13 @@
         <v>28</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F83">
         <v>500</v>
       </c>
       <c r="G83" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>29</v>
@@ -5983,13 +6007,13 @@
         <v>30</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F84">
         <v>50</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>40</v>
@@ -6019,13 +6043,13 @@
         <v>30</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F85">
         <v>50</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>40</v>
@@ -6061,7 +6085,7 @@
         <v>1500</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>39</v>
@@ -6097,7 +6121,7 @@
         <v>1000</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>39</v>
@@ -6127,13 +6151,13 @@
         <v>30</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F88">
         <v>3000</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>31</v>
@@ -6163,13 +6187,13 @@
         <v>30</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F89">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>31</v>
@@ -6179,7 +6203,7 @@
       </c>
       <c r="K89" s="42">
         <f t="shared" si="22"/>
-        <v>17545500000</v>
+        <v>17550000000</v>
       </c>
       <c r="L89" s="43"/>
     </row>
@@ -6199,27 +6223,27 @@
         <v>24</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F90" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="H90" s="34" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I90" s="31">
         <v>0</v>
       </c>
       <c r="K90" s="20">
         <f t="shared" ref="K90:K91" si="23">E90/10*10000*F90</f>
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="L90" s="25">
         <f t="shared" ref="L90:L138" si="24">SUM(K90:K97)/10000</f>
-        <v>9980750</v>
+        <v>9980000</v>
       </c>
       <c r="M90" s="44">
         <v>9990000</v>
@@ -6241,13 +6265,13 @@
         <v>28</v>
       </c>
       <c r="E91" s="33" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F91" s="31">
         <v>500</v>
       </c>
       <c r="G91" s="31" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="H91" s="34" t="s">
         <v>29</v>
@@ -6278,13 +6302,13 @@
         <v>30</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F92" s="31">
         <v>50</v>
       </c>
       <c r="G92" s="34" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="H92" s="34" t="s">
         <v>40</v>
@@ -6321,7 +6345,7 @@
         <v>50</v>
       </c>
       <c r="G93" s="34" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="H93" s="34" t="s">
         <v>40</v>
@@ -6352,13 +6376,13 @@
         <v>30</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F94" s="31">
         <v>1500</v>
       </c>
       <c r="G94" s="34" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="H94" s="34" t="s">
         <v>39</v>
@@ -6389,13 +6413,13 @@
         <v>30</v>
       </c>
       <c r="E95" s="33" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F95" s="31">
         <v>1000</v>
       </c>
       <c r="G95" s="34" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="H95" s="34" t="s">
         <v>39</v>
@@ -6426,13 +6450,13 @@
         <v>30</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F96" s="31">
         <v>3000</v>
       </c>
       <c r="G96" s="34" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H96" s="34" t="s">
         <v>31</v>
@@ -6463,13 +6487,13 @@
         <v>30</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F97" s="31">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="G97" s="34" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="H97" s="34" t="s">
         <v>31</v>
@@ -6479,7 +6503,7 @@
       </c>
       <c r="K97" s="42">
         <f t="shared" si="25"/>
-        <v>29242500000</v>
+        <v>29250000000</v>
       </c>
       <c r="L97" s="43"/>
       <c r="M97" s="44"/>
@@ -6500,27 +6524,27 @@
         <v>24</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F98" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I98" s="13">
         <v>0</v>
       </c>
       <c r="K98" s="20">
         <f t="shared" ref="K98:K99" si="26">E98/10*10000*F98</f>
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="L98" s="25">
         <f t="shared" ref="L98" si="27">SUM(K98:K105)/10000</f>
-        <v>1497400</v>
+        <v>1500000</v>
       </c>
       <c r="M98" s="46">
         <v>1500000</v>
@@ -6548,7 +6572,7 @@
         <v>500</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H99" s="16" t="s">
         <v>29</v>
@@ -6585,7 +6609,7 @@
         <v>800</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="H100" s="16" t="s">
         <v>40</v>
@@ -6616,13 +6640,13 @@
         <v>30</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>74</v>
+        <v>351</v>
       </c>
       <c r="F101" s="13">
         <v>200</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="H101" s="16" t="s">
         <v>40</v>
@@ -6632,7 +6656,7 @@
       </c>
       <c r="K101" s="42">
         <f t="shared" si="28"/>
-        <v>800000000</v>
+        <v>700000000</v>
       </c>
       <c r="L101" s="43"/>
       <c r="M101" s="45"/>
@@ -6653,13 +6677,13 @@
         <v>30</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="F102" s="13">
         <v>1000</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="H102" s="16" t="s">
         <v>39</v>
@@ -6669,7 +6693,7 @@
       </c>
       <c r="K102" s="42">
         <f t="shared" si="28"/>
-        <v>2500000000</v>
+        <v>2000000000</v>
       </c>
       <c r="L102" s="43"/>
       <c r="M102" s="45"/>
@@ -6690,13 +6714,13 @@
         <v>30</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="F103" s="13">
         <v>1000</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="H103" s="16" t="s">
         <v>56</v>
@@ -6706,7 +6730,7 @@
       </c>
       <c r="K103" s="42">
         <f t="shared" si="28"/>
-        <v>1800000000</v>
+        <v>1500000000</v>
       </c>
       <c r="L103" s="43"/>
       <c r="M103" s="45"/>
@@ -6727,13 +6751,13 @@
         <v>30</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="F104" s="13">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H104" s="16" t="s">
         <v>31</v>
@@ -6743,7 +6767,7 @@
       </c>
       <c r="K104" s="42">
         <f t="shared" si="28"/>
-        <v>3024000000</v>
+        <v>3000000000</v>
       </c>
       <c r="L104" s="43"/>
       <c r="M104" s="45"/>
@@ -6764,13 +6788,13 @@
         <v>30</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c r="F105" s="13">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="H105" s="16" t="s">
         <v>31</v>
@@ -6780,7 +6804,7 @@
       </c>
       <c r="K105" s="42">
         <f t="shared" si="28"/>
-        <v>1848000000</v>
+        <v>2800000000</v>
       </c>
       <c r="L105" s="43"/>
       <c r="M105" s="45"/>
@@ -6801,27 +6825,27 @@
         <v>24</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F106" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" s="34" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="H106" s="34" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I106" s="31">
         <v>0</v>
       </c>
       <c r="K106" s="20">
         <f t="shared" ref="K106:K107" si="29">E106/10*10000*F106</f>
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="L106" s="25">
         <f t="shared" si="21"/>
-        <v>5998600</v>
+        <v>5998000</v>
       </c>
       <c r="M106" s="46">
         <v>6000000</v>
@@ -6843,13 +6867,13 @@
         <v>28</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F107" s="31">
         <v>300</v>
       </c>
       <c r="G107" s="34" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="H107" s="34" t="s">
         <v>29</v>
@@ -6880,13 +6904,13 @@
         <v>30</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F108" s="31">
         <v>600</v>
       </c>
       <c r="G108" s="34" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="H108" s="34" t="s">
         <v>40</v>
@@ -6917,13 +6941,13 @@
         <v>30</v>
       </c>
       <c r="E109" s="33" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F109" s="31">
         <v>200</v>
       </c>
       <c r="G109" s="34" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="H109" s="34" t="s">
         <v>40</v>
@@ -6954,13 +6978,13 @@
         <v>30</v>
       </c>
       <c r="E110" s="33" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F110" s="31">
         <v>1000</v>
       </c>
       <c r="G110" s="34" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="H110" s="34" t="s">
         <v>39</v>
@@ -6991,13 +7015,13 @@
         <v>30</v>
       </c>
       <c r="E111" s="33" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F111" s="31">
         <v>1000</v>
       </c>
       <c r="G111" s="34" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="H111" s="34" t="s">
         <v>57</v>
@@ -7034,7 +7058,7 @@
         <v>3000</v>
       </c>
       <c r="G112" s="34" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="H112" s="34" t="s">
         <v>31</v>
@@ -7068,10 +7092,10 @@
         <v>74</v>
       </c>
       <c r="F113" s="31">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="G113" s="34" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="H113" s="34" t="s">
         <v>31</v>
@@ -7081,7 +7105,7 @@
       </c>
       <c r="K113" s="42">
         <f t="shared" si="30"/>
-        <v>15596000000</v>
+        <v>15600000000</v>
       </c>
       <c r="L113" s="43"/>
       <c r="M113" s="44"/>
@@ -7102,27 +7126,27 @@
         <v>24</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F114" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="H114" s="16" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I114" s="13">
         <v>0</v>
       </c>
       <c r="K114" s="20">
         <f t="shared" ref="K114:K115" si="31">E114/10*10000*F114</f>
-        <v>30000000</v>
+        <v>0</v>
       </c>
       <c r="L114" s="25">
         <f t="shared" si="24"/>
-        <v>13491300</v>
+        <v>13489000</v>
       </c>
       <c r="M114" s="46">
         <v>13500000</v>
@@ -7144,13 +7168,13 @@
         <v>28</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F115" s="13">
         <v>300</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="H115" s="16" t="s">
         <v>29</v>
@@ -7187,7 +7211,7 @@
         <v>600</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="H116" s="16" t="s">
         <v>40</v>
@@ -7218,13 +7242,13 @@
         <v>30</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F117" s="13">
         <v>200</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H117" s="16" t="s">
         <v>40</v>
@@ -7255,13 +7279,13 @@
         <v>30</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F118" s="13">
         <v>1000</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="H118" s="16" t="s">
         <v>39</v>
@@ -7292,13 +7316,13 @@
         <v>30</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F119" s="13">
         <v>1000</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="H119" s="16" t="s">
         <v>54</v>
@@ -7329,13 +7353,13 @@
         <v>30</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F120" s="13">
         <v>3000</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H120" s="16" t="s">
         <v>31</v>
@@ -7366,13 +7390,13 @@
         <v>30</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F121" s="13">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H121" s="16" t="s">
         <v>31</v>
@@ -7382,7 +7406,7 @@
       </c>
       <c r="K121" s="42">
         <f t="shared" si="32"/>
-        <v>27293000000</v>
+        <v>27300000000</v>
       </c>
       <c r="L121" s="43"/>
       <c r="M121" s="45"/>
@@ -7403,27 +7427,27 @@
         <v>24</v>
       </c>
       <c r="E122" s="33" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F122" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" s="34" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="H122" s="34" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I122" s="31">
         <v>0</v>
       </c>
       <c r="K122" s="20">
         <f t="shared" ref="K122:K123" si="33">E122/10*10000*F122</f>
-        <v>50000000</v>
+        <v>0</v>
       </c>
       <c r="L122" s="25">
         <f t="shared" ref="L122" si="34">SUM(K122:K129)/10000</f>
-        <v>25490720</v>
+        <v>25487000</v>
       </c>
       <c r="M122" s="46">
         <v>25500000</v>
@@ -7445,13 +7469,13 @@
         <v>28</v>
       </c>
       <c r="E123" s="33" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F123" s="31">
         <v>100</v>
       </c>
       <c r="G123" s="34" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="H123" s="34" t="s">
         <v>29</v>
@@ -7482,13 +7506,13 @@
         <v>30</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F124" s="31">
         <v>300</v>
       </c>
       <c r="G124" s="34" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H124" s="34" t="s">
         <v>40</v>
@@ -7519,13 +7543,13 @@
         <v>30</v>
       </c>
       <c r="E125" s="33" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F125" s="31">
         <v>200</v>
       </c>
       <c r="G125" s="34" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H125" s="34" t="s">
         <v>40</v>
@@ -7556,13 +7580,13 @@
         <v>30</v>
       </c>
       <c r="E126" s="33" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F126" s="31">
         <v>1500</v>
       </c>
       <c r="G126" s="34" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="H126" s="34" t="s">
         <v>39</v>
@@ -7593,13 +7617,13 @@
         <v>30</v>
       </c>
       <c r="E127" s="33" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F127" s="31">
         <v>1000</v>
       </c>
       <c r="G127" s="34" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="H127" s="34" t="s">
         <v>61</v>
@@ -7630,13 +7654,13 @@
         <v>30</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F128" s="31">
         <v>3000</v>
       </c>
       <c r="G128" s="34" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="H128" s="34" t="s">
         <v>31</v>
@@ -7667,13 +7691,13 @@
         <v>30</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F129" s="31">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="G129" s="34" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="H129" s="34" t="s">
         <v>31</v>
@@ -7683,7 +7707,7 @@
       </c>
       <c r="K129" s="42">
         <f t="shared" si="35"/>
-        <v>49907200000</v>
+        <v>49920000000</v>
       </c>
       <c r="L129" s="43"/>
       <c r="M129" s="44"/>
@@ -7707,24 +7731,24 @@
         <v>50</v>
       </c>
       <c r="F130" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="H130" s="16" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I130" s="13">
         <v>0</v>
       </c>
       <c r="K130" s="20">
         <f t="shared" ref="K130:K131" si="36">E130/10*10000*F130</f>
-        <v>80000000</v>
+        <v>0</v>
       </c>
       <c r="L130" s="25">
         <f t="shared" si="21"/>
-        <v>40495000</v>
+        <v>40490000</v>
       </c>
       <c r="M130" s="46">
         <v>40500000</v>
@@ -7746,13 +7770,13 @@
         <v>28</v>
       </c>
       <c r="E131" s="15" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F131" s="13">
         <v>500</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="H131" s="16" t="s">
         <v>29</v>
@@ -7783,13 +7807,13 @@
         <v>30</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F132" s="13">
         <v>80</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="H132" s="16" t="s">
         <v>40</v>
@@ -7820,13 +7844,13 @@
         <v>30</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F133" s="13">
         <v>20</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H133" s="16" t="s">
         <v>40</v>
@@ -7857,13 +7881,13 @@
         <v>30</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F134" s="13">
         <v>1500</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H134" s="16" t="s">
         <v>39</v>
@@ -7894,13 +7918,13 @@
         <v>30</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F135" s="13">
         <v>1000</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="H135" s="16" t="s">
         <v>39</v>
@@ -7931,13 +7955,13 @@
         <v>30</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F136" s="13">
         <v>3000</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="H136" s="16" t="s">
         <v>31</v>
@@ -7971,10 +7995,10 @@
         <v>87</v>
       </c>
       <c r="F137" s="13">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H137" s="16" t="s">
         <v>31</v>
@@ -7984,7 +8008,7 @@
       </c>
       <c r="K137" s="42">
         <f t="shared" si="37"/>
-        <v>116970000000</v>
+        <v>117000000000</v>
       </c>
       <c r="L137" s="43"/>
       <c r="M137" s="45"/>
@@ -8008,13 +8032,13 @@
         <v>72</v>
       </c>
       <c r="F138" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138" s="34" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="H138" s="34" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I138" s="31">
         <v>0</v>
@@ -8022,11 +8046,11 @@
       <c r="J138" s="34"/>
       <c r="K138" s="20">
         <f t="shared" ref="K138:K139" si="38">E138/10*10000*F138</f>
-        <v>100000000</v>
+        <v>0</v>
       </c>
       <c r="L138" s="25">
         <f t="shared" si="24"/>
-        <v>85493400</v>
+        <v>85490000</v>
       </c>
       <c r="M138" s="46">
         <v>85500000</v>
@@ -8048,7 +8072,7 @@
         <v>28</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F139" s="31">
         <v>500</v>
@@ -8085,13 +8109,13 @@
         <v>30</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F140" s="31">
         <v>80</v>
       </c>
       <c r="G140" s="34" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="H140" s="34" t="s">
         <v>40</v>
@@ -8122,13 +8146,13 @@
         <v>30</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F141" s="31">
         <v>20</v>
       </c>
       <c r="G141" s="34" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="H141" s="34" t="s">
         <v>40</v>
@@ -8159,13 +8183,13 @@
         <v>30</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F142" s="31">
         <v>1500</v>
       </c>
       <c r="G142" s="34" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="H142" s="34" t="s">
         <v>39</v>
@@ -8196,13 +8220,13 @@
         <v>30</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F143" s="31">
         <v>1000</v>
       </c>
       <c r="G143" s="34" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="H143" s="34" t="s">
         <v>54</v>
@@ -8233,13 +8257,13 @@
         <v>30</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F144" s="31">
         <v>3000</v>
       </c>
       <c r="G144" s="34" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H144" s="34" t="s">
         <v>31</v>
@@ -8270,13 +8294,13 @@
         <v>30</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F145" s="31">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="G145" s="34" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="H145" s="34" t="s">
         <v>31</v>
@@ -8286,7 +8310,7 @@
       </c>
       <c r="K145" s="42">
         <f t="shared" si="41"/>
-        <v>257334000000</v>
+        <v>257400000000</v>
       </c>
       <c r="L145" s="43"/>
       <c r="M145" s="44"/>
@@ -8307,27 +8331,27 @@
         <v>24</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I146">
         <v>0</v>
       </c>
       <c r="K146" s="20">
         <f t="shared" ref="K146:K147" si="42">E146/10*10000*F146</f>
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="L146" s="25">
         <f t="shared" ref="L146" si="43">SUM(K146:K153)/10000</f>
-        <v>2394372</v>
+        <v>2394000</v>
       </c>
       <c r="M146" s="46">
         <v>2400000</v>
@@ -8349,13 +8373,13 @@
         <v>28</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F147">
         <v>500</v>
       </c>
       <c r="G147" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="H147" s="4" t="s">
         <v>29</v>
@@ -8385,13 +8409,13 @@
         <v>30</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F148">
         <v>500</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>40</v>
@@ -8421,13 +8445,13 @@
         <v>30</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F149">
         <v>500</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>40</v>
@@ -8457,13 +8481,13 @@
         <v>30</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F150">
         <v>1000</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="H150" s="4" t="s">
         <v>39</v>
@@ -8493,13 +8517,13 @@
         <v>30</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F151">
         <v>1000</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>56</v>
@@ -8529,16 +8553,16 @@
         <v>30</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F152">
         <v>2800</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -8565,13 +8589,13 @@
         <v>30</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="F153">
-        <v>3699</v>
+        <v>3700</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>31</v>
@@ -8581,7 +8605,7 @@
       </c>
       <c r="K153" s="42">
         <f t="shared" si="44"/>
-        <v>4734720000</v>
+        <v>4736000000</v>
       </c>
       <c r="L153" s="43"/>
     </row>
@@ -8604,24 +8628,24 @@
         <v>36</v>
       </c>
       <c r="F154" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154" s="34" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="H154" s="34" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I154" s="31">
         <v>0</v>
       </c>
       <c r="K154" s="20">
         <f t="shared" ref="K154:K155" si="45">E154/10*10000*F154</f>
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="L154" s="25">
         <f t="shared" ref="L154:L178" si="46">SUM(K154:K161)/10000</f>
-        <v>6899132</v>
+        <v>6898800</v>
       </c>
       <c r="M154" s="46">
         <v>6900000</v>
@@ -8643,7 +8667,7 @@
         <v>28</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="F155" s="31">
         <v>300</v>
@@ -8680,13 +8704,13 @@
         <v>30</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F156" s="31">
         <v>600</v>
       </c>
       <c r="G156" s="34" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="H156" s="34" t="s">
         <v>40</v>
@@ -8723,7 +8747,7 @@
         <v>200</v>
       </c>
       <c r="G157" s="34" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="H157" s="34" t="s">
         <v>40</v>
@@ -8754,13 +8778,13 @@
         <v>30</v>
       </c>
       <c r="E158" s="33" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F158" s="31">
         <v>1000</v>
       </c>
       <c r="G158" s="34" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="H158" s="34" t="s">
         <v>39</v>
@@ -8791,13 +8815,13 @@
         <v>30</v>
       </c>
       <c r="E159" s="33" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F159" s="31">
         <v>1000</v>
       </c>
       <c r="G159" s="34" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="H159" s="34" t="s">
         <v>59</v>
@@ -8828,13 +8852,13 @@
         <v>30</v>
       </c>
       <c r="E160" s="33" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F160" s="31">
         <v>3000</v>
       </c>
       <c r="G160" s="34" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H160" s="34" t="s">
         <v>31</v>
@@ -8865,13 +8889,13 @@
         <v>30</v>
       </c>
       <c r="E161" s="33" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F161" s="31">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="G161" s="34" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="H161" s="34" t="s">
         <v>31</v>
@@ -8881,7 +8905,7 @@
       </c>
       <c r="K161" s="42">
         <f t="shared" si="47"/>
-        <v>18247320000</v>
+        <v>18252000000</v>
       </c>
       <c r="L161" s="43"/>
       <c r="M161" s="44"/>
@@ -8902,27 +8926,27 @@
         <v>24</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I162">
         <v>0</v>
       </c>
       <c r="K162" s="20">
         <f t="shared" ref="K162:K163" si="48">E162/10*10000*F162</f>
-        <v>30000000</v>
+        <v>0</v>
       </c>
       <c r="L162" s="25">
         <f t="shared" ref="L162:L186" si="49">SUM(K162:K169)/10000</f>
-        <v>15889120</v>
+        <v>15887000</v>
       </c>
       <c r="M162" s="46">
         <v>15900000</v>
@@ -8944,13 +8968,13 @@
         <v>28</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F163">
         <v>300</v>
       </c>
       <c r="G163" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="H163" s="4" t="s">
         <v>29</v>
@@ -8986,7 +9010,7 @@
         <v>600</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="H164" s="4" t="s">
         <v>40</v>
@@ -9016,13 +9040,13 @@
         <v>30</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F165">
         <v>200</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="H165" s="4" t="s">
         <v>40</v>
@@ -9052,13 +9076,13 @@
         <v>30</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F166">
         <v>1000</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="H166" s="4" t="s">
         <v>39</v>
@@ -9094,7 +9118,7 @@
         <v>1000</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="H167" s="4" t="s">
         <v>62</v>
@@ -9124,13 +9148,13 @@
         <v>30</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="F168">
         <v>3000</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="H168" s="4" t="s">
         <v>31</v>
@@ -9160,13 +9184,13 @@
         <v>30</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>212</v>
+        <v>352</v>
       </c>
       <c r="F169">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="H169" s="4" t="s">
         <v>31</v>
@@ -9176,7 +9200,7 @@
       </c>
       <c r="K169" s="42">
         <f t="shared" si="50"/>
-        <v>34311200000</v>
+        <v>34320000000</v>
       </c>
       <c r="L169" s="43"/>
     </row>
@@ -9199,24 +9223,24 @@
         <v>49</v>
       </c>
       <c r="F170" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G170" s="34" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="H170" s="34" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I170" s="31">
         <v>0</v>
       </c>
       <c r="K170" s="20">
         <f t="shared" ref="K170:K171" si="51">E170/10*10000*F170</f>
-        <v>50000000</v>
+        <v>0</v>
       </c>
       <c r="L170" s="25">
         <f t="shared" ref="L170" si="52">SUM(K170:K177)/10000</f>
-        <v>33882500</v>
+        <v>33880000</v>
       </c>
       <c r="M170" s="46">
         <v>33900000</v>
@@ -9238,13 +9262,13 @@
         <v>28</v>
       </c>
       <c r="E171" s="33" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F171" s="31">
         <v>100</v>
       </c>
       <c r="G171" s="31" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H171" s="34" t="s">
         <v>29</v>
@@ -9281,7 +9305,7 @@
         <v>300</v>
       </c>
       <c r="G172" s="34" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H172" s="34" t="s">
         <v>40</v>
@@ -9312,13 +9336,13 @@
         <v>30</v>
       </c>
       <c r="E173" s="33" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F173" s="31">
         <v>200</v>
       </c>
       <c r="G173" s="34" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H173" s="34" t="s">
         <v>40</v>
@@ -9349,13 +9373,13 @@
         <v>30</v>
       </c>
       <c r="E174" s="33" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F174" s="31">
         <v>1500</v>
       </c>
       <c r="G174" s="34" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="H174" s="34" t="s">
         <v>39</v>
@@ -9392,7 +9416,7 @@
         <v>1000</v>
       </c>
       <c r="G175" s="34" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="H175" s="34" t="s">
         <v>63</v>
@@ -9429,7 +9453,7 @@
         <v>3000</v>
       </c>
       <c r="G176" s="34" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H176" s="34" t="s">
         <v>31</v>
@@ -9463,10 +9487,10 @@
         <v>85</v>
       </c>
       <c r="F177" s="31">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="G177" s="34" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="H177" s="34" t="s">
         <v>31</v>
@@ -9476,7 +9500,7 @@
       </c>
       <c r="K177" s="42">
         <f t="shared" si="53"/>
-        <v>97475000000</v>
+        <v>97500000000</v>
       </c>
       <c r="L177" s="43"/>
       <c r="M177" s="44"/>
@@ -9497,27 +9521,27 @@
         <v>24</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I178">
         <v>0</v>
       </c>
       <c r="K178" s="20">
         <f t="shared" ref="K178:K179" si="54">E178/10*10000*F178</f>
-        <v>80000000</v>
+        <v>0</v>
       </c>
       <c r="L178" s="25">
         <f t="shared" si="46"/>
-        <v>57893200</v>
+        <v>57890000</v>
       </c>
       <c r="M178" s="46">
         <v>57900000</v>
@@ -9539,13 +9563,13 @@
         <v>28</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F179">
         <v>500</v>
       </c>
       <c r="G179" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="H179" s="4" t="s">
         <v>29</v>
@@ -9575,13 +9599,13 @@
         <v>30</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F180">
         <v>50</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="H180" s="4" t="s">
         <v>40</v>
@@ -9611,13 +9635,13 @@
         <v>30</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F181">
         <v>50</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H181" s="4" t="s">
         <v>40</v>
@@ -9647,13 +9671,13 @@
         <v>30</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F182">
         <v>1000</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H182" s="4" t="s">
         <v>39</v>
@@ -9683,13 +9707,13 @@
         <v>30</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F183">
         <v>1500</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="H183" s="4" t="s">
         <v>39</v>
@@ -9719,13 +9743,13 @@
         <v>30</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F184">
         <v>3000</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="H184" s="4" t="s">
         <v>31</v>
@@ -9755,13 +9779,13 @@
         <v>30</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F185">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="H185" s="4" t="s">
         <v>31</v>
@@ -9771,7 +9795,7 @@
       </c>
       <c r="K185" s="42">
         <f t="shared" si="55"/>
-        <v>187152000000</v>
+        <v>187200000000</v>
       </c>
       <c r="L185" s="43"/>
     </row>
@@ -9788,19 +9812,19 @@
         <v>1</v>
       </c>
       <c r="D186" s="32" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E186" s="33" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F186" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G186" s="34" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="H186" s="34" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I186" s="31">
         <v>1</v>
@@ -9808,11 +9832,11 @@
       <c r="J186" s="34"/>
       <c r="K186" s="20">
         <f t="shared" ref="K186:K187" si="56">E186/10*10000*F186</f>
-        <v>150000000</v>
+        <v>0</v>
       </c>
       <c r="L186" s="25">
         <f t="shared" si="49"/>
-        <v>102859000</v>
+        <v>102850000</v>
       </c>
       <c r="M186" s="46">
         <v>102900000</v>
@@ -9834,7 +9858,7 @@
         <v>28</v>
       </c>
       <c r="E187" s="33" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F187" s="31">
         <v>500</v>
@@ -9871,13 +9895,13 @@
         <v>30</v>
       </c>
       <c r="E188" s="33" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F188" s="31">
         <v>50</v>
       </c>
       <c r="G188" s="34" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="H188" s="34" t="s">
         <v>40</v>
@@ -9908,13 +9932,13 @@
         <v>30</v>
       </c>
       <c r="E189" s="33" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F189" s="31">
         <v>50</v>
       </c>
       <c r="G189" s="34" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="H189" s="34" t="s">
         <v>40</v>
@@ -9945,13 +9969,13 @@
         <v>30</v>
       </c>
       <c r="E190" s="33" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="F190" s="31">
         <v>1000</v>
       </c>
       <c r="G190" s="34" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="H190" s="34" t="s">
         <v>39</v>
@@ -9988,7 +10012,7 @@
         <v>1500</v>
       </c>
       <c r="G191" s="34" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="H191" s="34" t="s">
         <v>63</v>
@@ -10019,13 +10043,13 @@
         <v>30</v>
       </c>
       <c r="E192" s="33" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F192" s="31">
         <v>3000</v>
       </c>
       <c r="G192" s="34" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="H192" s="34" t="s">
         <v>31</v>
@@ -10056,13 +10080,13 @@
         <v>30</v>
       </c>
       <c r="E193" s="33" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F193" s="31">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="G193" s="34" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H193" s="34" t="s">
         <v>31</v>
@@ -10072,7 +10096,7 @@
       </c>
       <c r="K193" s="42">
         <f t="shared" si="57"/>
-        <v>233940000000</v>
+        <v>234000000000</v>
       </c>
       <c r="L193" s="43"/>
       <c r="M193" s="44"/>

--- a/config_Release/fish_3d_caijin_config.xlsx
+++ b/config_Release/fish_3d_caijin_config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="357">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1011,21 +1011,12 @@
     <t>鱼币*3000000</t>
   </si>
   <si>
-    <t>鱼币*1080000</t>
-  </si>
-  <si>
-    <t>鱼币*660000</t>
-  </si>
-  <si>
     <t>鱼币*400000</t>
   </si>
   <si>
     <t>鱼币*350000</t>
   </si>
   <si>
-    <t>鱼币*260000</t>
-  </si>
-  <si>
     <t>话费碎片*100</t>
   </si>
   <si>
@@ -1099,12 +1090,6 @@
   </si>
   <si>
     <t>话费碎片*400</t>
-  </si>
-  <si>
-    <t>鱼币*2500000</t>
-  </si>
-  <si>
-    <t>鱼币*1800000</t>
   </si>
   <si>
     <t>10000福利券</t>
@@ -1340,6 +1325,42 @@
   </si>
   <si>
     <t>8800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*3500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*2000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*1500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*1000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*220000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*118000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*820000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1643,12 +1664,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1666,6 +1681,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1982,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C2" s="1">
         <v>0.05</v>
@@ -2108,7 +2129,7 @@
       <c r="G2" s="37">
         <v>5</v>
       </c>
-      <c r="H2" s="47">
+      <c r="H2" s="53">
         <v>1000</v>
       </c>
       <c r="I2">
@@ -2141,7 +2162,7 @@
       <c r="G3" s="37">
         <v>15</v>
       </c>
-      <c r="H3" s="47"/>
+      <c r="H3" s="53"/>
       <c r="I3">
         <f>G3+I2</f>
         <v>20</v>
@@ -2173,7 +2194,7 @@
       <c r="G4" s="37">
         <v>30</v>
       </c>
-      <c r="H4" s="47"/>
+      <c r="H4" s="53"/>
       <c r="I4">
         <f t="shared" ref="I4:I7" si="1">G4+I3</f>
         <v>50</v>
@@ -2205,7 +2226,7 @@
       <c r="G5" s="37">
         <v>50</v>
       </c>
-      <c r="H5" s="47"/>
+      <c r="H5" s="53"/>
       <c r="I5">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -2237,7 +2258,7 @@
       <c r="G6" s="37">
         <v>80</v>
       </c>
-      <c r="H6" s="47"/>
+      <c r="H6" s="53"/>
       <c r="I6">
         <f t="shared" si="1"/>
         <v>180</v>
@@ -2269,7 +2290,7 @@
       <c r="G7" s="37">
         <v>200</v>
       </c>
-      <c r="H7" s="47"/>
+      <c r="H7" s="53"/>
       <c r="I7">
         <f t="shared" si="1"/>
         <v>380</v>
@@ -2301,7 +2322,7 @@
       <c r="G8" s="37">
         <v>8</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="54" t="s">
         <v>92</v>
       </c>
       <c r="I8">
@@ -2334,7 +2355,7 @@
       <c r="G9" s="37">
         <v>15</v>
       </c>
-      <c r="H9" s="47"/>
+      <c r="H9" s="53"/>
       <c r="I9">
         <f>G9+I8</f>
         <v>23</v>
@@ -2366,7 +2387,7 @@
       <c r="G10" s="37">
         <v>30</v>
       </c>
-      <c r="H10" s="47"/>
+      <c r="H10" s="53"/>
       <c r="I10">
         <f t="shared" ref="I10:I25" si="3">G10+I9</f>
         <v>53</v>
@@ -2398,7 +2419,7 @@
       <c r="G11" s="37">
         <v>50</v>
       </c>
-      <c r="H11" s="47"/>
+      <c r="H11" s="53"/>
       <c r="I11">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -2430,7 +2451,7 @@
       <c r="G12" s="37">
         <v>80</v>
       </c>
-      <c r="H12" s="47"/>
+      <c r="H12" s="53"/>
       <c r="I12">
         <f t="shared" si="3"/>
         <v>183</v>
@@ -2462,7 +2483,7 @@
       <c r="G13" s="37">
         <v>150</v>
       </c>
-      <c r="H13" s="47"/>
+      <c r="H13" s="53"/>
       <c r="I13">
         <f t="shared" si="3"/>
         <v>333</v>
@@ -2494,7 +2515,7 @@
       <c r="G14" s="37">
         <v>10</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="54" t="s">
         <v>90</v>
       </c>
       <c r="I14">
@@ -2527,7 +2548,7 @@
       <c r="G15" s="37">
         <v>30</v>
       </c>
-      <c r="H15" s="47"/>
+      <c r="H15" s="53"/>
       <c r="I15">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -2559,7 +2580,7 @@
       <c r="G16" s="37">
         <v>50</v>
       </c>
-      <c r="H16" s="47"/>
+      <c r="H16" s="53"/>
       <c r="I16">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -2591,7 +2612,7 @@
       <c r="G17" s="37">
         <v>80</v>
       </c>
-      <c r="H17" s="47"/>
+      <c r="H17" s="53"/>
       <c r="I17">
         <f t="shared" si="3"/>
         <v>170</v>
@@ -2623,7 +2644,7 @@
       <c r="G18" s="37">
         <v>100</v>
       </c>
-      <c r="H18" s="47"/>
+      <c r="H18" s="53"/>
       <c r="I18">
         <f t="shared" si="3"/>
         <v>270</v>
@@ -2655,7 +2676,7 @@
       <c r="G19" s="37">
         <v>300</v>
       </c>
-      <c r="H19" s="47"/>
+      <c r="H19" s="53"/>
       <c r="I19">
         <f t="shared" si="3"/>
         <v>570</v>
@@ -2687,7 +2708,7 @@
       <c r="G20" s="37">
         <v>8</v>
       </c>
-      <c r="H20" s="48" t="s">
+      <c r="H20" s="54" t="s">
         <v>91</v>
       </c>
       <c r="I20">
@@ -2720,7 +2741,7 @@
       <c r="G21" s="37">
         <v>15</v>
       </c>
-      <c r="H21" s="47"/>
+      <c r="H21" s="53"/>
       <c r="I21">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -2752,7 +2773,7 @@
       <c r="G22" s="37">
         <v>30</v>
       </c>
-      <c r="H22" s="47"/>
+      <c r="H22" s="53"/>
       <c r="I22">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -2784,7 +2805,7 @@
       <c r="G23" s="37">
         <v>60</v>
       </c>
-      <c r="H23" s="47"/>
+      <c r="H23" s="53"/>
       <c r="I23">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -2816,7 +2837,7 @@
       <c r="G24" s="37">
         <v>80</v>
       </c>
-      <c r="H24" s="47"/>
+      <c r="H24" s="53"/>
       <c r="I24">
         <f t="shared" si="3"/>
         <v>193</v>
@@ -2848,7 +2869,7 @@
       <c r="G25" s="37">
         <v>150</v>
       </c>
-      <c r="H25" s="47"/>
+      <c r="H25" s="53"/>
       <c r="I25">
         <f t="shared" si="3"/>
         <v>343</v>
@@ -2878,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="G192" sqref="G192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2958,7 +2979,7 @@
         <v>231</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I2" s="17">
         <v>0</v>
@@ -3164,7 +3185,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F8" s="17">
         <v>2800</v>
@@ -3196,7 +3217,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>96</v>
@@ -3208,7 +3229,7 @@
         <v>230</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I9" s="17">
         <v>0</v>
@@ -3242,7 +3263,7 @@
         <v>226</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I10" s="22">
         <v>0</v>
@@ -3544,7 +3565,7 @@
         <v>233</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I18" s="27">
         <v>0</v>
@@ -3845,7 +3866,7 @@
         <v>238</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I26" s="31">
         <v>0</v>
@@ -4146,7 +4167,7 @@
         <v>244</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -4422,45 +4443,45 @@
       <c r="L41" s="43"/>
       <c r="M41" s="43"/>
     </row>
-    <row r="42" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="49">
+    <row r="42" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="47">
         <v>41</v>
       </c>
-      <c r="B42" s="50">
+      <c r="B42" s="48">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C42" s="50">
+      <c r="C42" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="F42" s="49">
-        <v>0</v>
-      </c>
-      <c r="G42" s="53" t="s">
+      <c r="F42" s="47">
+        <v>0</v>
+      </c>
+      <c r="G42" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="H42" s="53" t="s">
-        <v>337</v>
-      </c>
-      <c r="I42" s="49">
-        <v>0</v>
-      </c>
-      <c r="K42" s="52">
+      <c r="H42" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="I42" s="47">
+        <v>0</v>
+      </c>
+      <c r="K42" s="50">
         <f>E42/10*10000*F42</f>
         <v>0</v>
       </c>
-      <c r="L42" s="52">
+      <c r="L42" s="50">
         <f>SUM(K42:K49)/10000</f>
         <v>1137000</v>
       </c>
-      <c r="M42" s="54">
+      <c r="M42" s="52">
         <v>1140000</v>
       </c>
     </row>
@@ -4486,7 +4507,7 @@
         <v>500</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H43" s="34" t="s">
         <v>29</v>
@@ -4560,7 +4581,7 @@
         <v>80</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H45" s="34" t="s">
         <v>40</v>
@@ -4591,13 +4612,13 @@
         <v>30</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F46" s="31">
         <v>1440</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H46" s="34" t="s">
         <v>39</v>
@@ -4628,13 +4649,13 @@
         <v>30</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F47" s="31">
         <v>1000</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H47" s="34" t="s">
         <v>54</v>
@@ -4665,13 +4686,13 @@
         <v>30</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F48" s="31">
         <v>3000</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H48" s="34" t="s">
         <v>31</v>
@@ -4748,7 +4769,7 @@
         <v>233</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4895,7 +4916,7 @@
         <v>1000</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>39</v>
@@ -4931,7 +4952,7 @@
         <v>1000</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>53</v>
@@ -4961,13 +4982,13 @@
         <v>30</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F56">
         <v>3000</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>258</v>
+        <v>354</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>31</v>
@@ -4997,13 +5018,13 @@
         <v>30</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F57">
         <v>3500</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>243</v>
+        <v>355</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>31</v>
@@ -5042,7 +5063,7 @@
         <v>244</v>
       </c>
       <c r="H58" s="34" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I58" s="31">
         <v>0</v>
@@ -5081,7 +5102,7 @@
         <v>300</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H59" s="34" t="s">
         <v>29</v>
@@ -5155,7 +5176,7 @@
         <v>200</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H61" s="34" t="s">
         <v>40</v>
@@ -5192,7 +5213,7 @@
         <v>1000</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H62" s="34" t="s">
         <v>39</v>
@@ -5303,7 +5324,7 @@
         <v>3900</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H65" s="34" t="s">
         <v>31</v>
@@ -5340,10 +5361,10 @@
         <v>0</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -5382,7 +5403,7 @@
         <v>300</v>
       </c>
       <c r="G67" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>29</v>
@@ -5592,13 +5613,13 @@
         <v>30</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F73">
         <v>3900</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>241</v>
+        <v>356</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>31</v>
@@ -5634,10 +5655,10 @@
         <v>0</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H74" s="34" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I74" s="31">
         <v>0</v>
@@ -5676,7 +5697,7 @@
         <v>100</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H75" s="34" t="s">
         <v>29</v>
@@ -5707,13 +5728,13 @@
         <v>30</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F76" s="31">
         <v>300</v>
       </c>
       <c r="G76" s="34" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H76" s="34" t="s">
         <v>40</v>
@@ -5744,13 +5765,13 @@
         <v>30</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F77" s="31">
         <v>200</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H77" s="34" t="s">
         <v>40</v>
@@ -5818,7 +5839,7 @@
         <v>30</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F79" s="31">
         <v>1000</v>
@@ -5855,13 +5876,13 @@
         <v>30</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F80" s="31">
         <v>3000</v>
       </c>
       <c r="G80" s="34" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H80" s="34" t="s">
         <v>31</v>
@@ -5892,7 +5913,7 @@
         <v>30</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F81" s="31">
         <v>3900</v>
@@ -5935,10 +5956,10 @@
         <v>0</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -5977,7 +5998,7 @@
         <v>500</v>
       </c>
       <c r="G83" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>29</v>
@@ -6013,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>40</v>
@@ -6049,7 +6070,7 @@
         <v>50</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>40</v>
@@ -6085,7 +6106,7 @@
         <v>1500</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>39</v>
@@ -6121,7 +6142,7 @@
         <v>1000</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>39</v>
@@ -6157,7 +6178,7 @@
         <v>3000</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>31</v>
@@ -6193,7 +6214,7 @@
         <v>3900</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>31</v>
@@ -6229,10 +6250,10 @@
         <v>0</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H90" s="34" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I90" s="31">
         <v>0</v>
@@ -6271,7 +6292,7 @@
         <v>500</v>
       </c>
       <c r="G91" s="31" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H91" s="34" t="s">
         <v>29</v>
@@ -6308,7 +6329,7 @@
         <v>50</v>
       </c>
       <c r="G92" s="34" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H92" s="34" t="s">
         <v>40</v>
@@ -6345,7 +6366,7 @@
         <v>50</v>
       </c>
       <c r="G93" s="34" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H93" s="34" t="s">
         <v>40</v>
@@ -6382,7 +6403,7 @@
         <v>1500</v>
       </c>
       <c r="G94" s="34" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H94" s="34" t="s">
         <v>39</v>
@@ -6419,7 +6440,7 @@
         <v>1000</v>
       </c>
       <c r="G95" s="34" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H95" s="34" t="s">
         <v>39</v>
@@ -6456,7 +6477,7 @@
         <v>3000</v>
       </c>
       <c r="G96" s="34" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H96" s="34" t="s">
         <v>31</v>
@@ -6493,7 +6514,7 @@
         <v>3900</v>
       </c>
       <c r="G97" s="34" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H97" s="34" t="s">
         <v>31</v>
@@ -6530,10 +6551,10 @@
         <v>0</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I98" s="13">
         <v>0</v>
@@ -6572,7 +6593,7 @@
         <v>500</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H99" s="16" t="s">
         <v>29</v>
@@ -6609,7 +6630,7 @@
         <v>800</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H100" s="16" t="s">
         <v>40</v>
@@ -6640,13 +6661,13 @@
         <v>30</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F101" s="13">
         <v>200</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>246</v>
+        <v>348</v>
       </c>
       <c r="H101" s="16" t="s">
         <v>40</v>
@@ -6683,7 +6704,7 @@
         <v>1000</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>284</v>
+        <v>349</v>
       </c>
       <c r="H102" s="16" t="s">
         <v>39</v>
@@ -6720,7 +6741,7 @@
         <v>1000</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>285</v>
+        <v>350</v>
       </c>
       <c r="H103" s="16" t="s">
         <v>56</v>
@@ -6757,7 +6778,7 @@
         <v>3000</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>254</v>
+        <v>351</v>
       </c>
       <c r="H104" s="16" t="s">
         <v>31</v>
@@ -6788,13 +6809,13 @@
         <v>30</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>58</v>
+        <v>353</v>
       </c>
       <c r="F105" s="13">
         <v>3500</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>255</v>
+        <v>352</v>
       </c>
       <c r="H105" s="16" t="s">
         <v>31</v>
@@ -6831,10 +6852,10 @@
         <v>0</v>
       </c>
       <c r="G106" s="34" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H106" s="34" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I106" s="31">
         <v>0</v>
@@ -6873,7 +6894,7 @@
         <v>300</v>
       </c>
       <c r="G107" s="34" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H107" s="34" t="s">
         <v>29</v>
@@ -6910,7 +6931,7 @@
         <v>600</v>
       </c>
       <c r="G108" s="34" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H108" s="34" t="s">
         <v>40</v>
@@ -6947,7 +6968,7 @@
         <v>200</v>
       </c>
       <c r="G109" s="34" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H109" s="34" t="s">
         <v>40</v>
@@ -6984,7 +7005,7 @@
         <v>1000</v>
       </c>
       <c r="G110" s="34" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H110" s="34" t="s">
         <v>39</v>
@@ -7021,7 +7042,7 @@
         <v>1000</v>
       </c>
       <c r="G111" s="34" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H111" s="34" t="s">
         <v>57</v>
@@ -7132,10 +7153,10 @@
         <v>0</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H114" s="16" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I114" s="13">
         <v>0</v>
@@ -7174,7 +7195,7 @@
         <v>300</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H115" s="16" t="s">
         <v>29</v>
@@ -7211,7 +7232,7 @@
         <v>600</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H116" s="16" t="s">
         <v>40</v>
@@ -7248,7 +7269,7 @@
         <v>200</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H117" s="16" t="s">
         <v>40</v>
@@ -7285,7 +7306,7 @@
         <v>1000</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H118" s="16" t="s">
         <v>39</v>
@@ -7322,7 +7343,7 @@
         <v>1000</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H119" s="16" t="s">
         <v>54</v>
@@ -7359,7 +7380,7 @@
         <v>3000</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H120" s="16" t="s">
         <v>31</v>
@@ -7396,7 +7417,7 @@
         <v>3900</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H121" s="16" t="s">
         <v>31</v>
@@ -7433,10 +7454,10 @@
         <v>0</v>
       </c>
       <c r="G122" s="34" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H122" s="34" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I122" s="31">
         <v>0</v>
@@ -7475,7 +7496,7 @@
         <v>100</v>
       </c>
       <c r="G123" s="34" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H123" s="34" t="s">
         <v>29</v>
@@ -7512,7 +7533,7 @@
         <v>300</v>
       </c>
       <c r="G124" s="34" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H124" s="34" t="s">
         <v>40</v>
@@ -7549,7 +7570,7 @@
         <v>200</v>
       </c>
       <c r="G125" s="34" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H125" s="34" t="s">
         <v>40</v>
@@ -7586,7 +7607,7 @@
         <v>1500</v>
       </c>
       <c r="G126" s="34" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H126" s="34" t="s">
         <v>39</v>
@@ -7623,7 +7644,7 @@
         <v>1000</v>
       </c>
       <c r="G127" s="34" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H127" s="34" t="s">
         <v>61</v>
@@ -7660,7 +7681,7 @@
         <v>3000</v>
       </c>
       <c r="G128" s="34" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H128" s="34" t="s">
         <v>31</v>
@@ -7697,7 +7718,7 @@
         <v>3900</v>
       </c>
       <c r="G129" s="34" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H129" s="34" t="s">
         <v>31</v>
@@ -7734,10 +7755,10 @@
         <v>0</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H130" s="16" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I130" s="13">
         <v>0</v>
@@ -7776,7 +7797,7 @@
         <v>500</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H131" s="16" t="s">
         <v>29</v>
@@ -7813,7 +7834,7 @@
         <v>80</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H132" s="16" t="s">
         <v>40</v>
@@ -7850,7 +7871,7 @@
         <v>20</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H133" s="16" t="s">
         <v>40</v>
@@ -7887,7 +7908,7 @@
         <v>1500</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H134" s="16" t="s">
         <v>39</v>
@@ -7924,7 +7945,7 @@
         <v>1000</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H135" s="16" t="s">
         <v>39</v>
@@ -7961,7 +7982,7 @@
         <v>3000</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H136" s="16" t="s">
         <v>31</v>
@@ -7998,7 +8019,7 @@
         <v>3900</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H137" s="16" t="s">
         <v>31</v>
@@ -8035,10 +8056,10 @@
         <v>0</v>
       </c>
       <c r="G138" s="34" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H138" s="34" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I138" s="31">
         <v>0</v>
@@ -8115,7 +8136,7 @@
         <v>80</v>
       </c>
       <c r="G140" s="34" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H140" s="34" t="s">
         <v>40</v>
@@ -8152,7 +8173,7 @@
         <v>20</v>
       </c>
       <c r="G141" s="34" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H141" s="34" t="s">
         <v>40</v>
@@ -8189,7 +8210,7 @@
         <v>1500</v>
       </c>
       <c r="G142" s="34" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H142" s="34" t="s">
         <v>39</v>
@@ -8226,7 +8247,7 @@
         <v>1000</v>
       </c>
       <c r="G143" s="34" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H143" s="34" t="s">
         <v>54</v>
@@ -8263,7 +8284,7 @@
         <v>3000</v>
       </c>
       <c r="G144" s="34" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H144" s="34" t="s">
         <v>31</v>
@@ -8300,7 +8321,7 @@
         <v>3900</v>
       </c>
       <c r="G145" s="34" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H145" s="34" t="s">
         <v>31</v>
@@ -8337,10 +8358,10 @@
         <v>0</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -8379,7 +8400,7 @@
         <v>500</v>
       </c>
       <c r="G147" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H147" s="4" t="s">
         <v>29</v>
@@ -8415,7 +8436,7 @@
         <v>500</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>40</v>
@@ -8523,7 +8544,7 @@
         <v>1000</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>56</v>
@@ -8559,10 +8580,10 @@
         <v>2800</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -8631,10 +8652,10 @@
         <v>0</v>
       </c>
       <c r="G154" s="34" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H154" s="34" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I154" s="31">
         <v>0</v>
@@ -8710,7 +8731,7 @@
         <v>600</v>
       </c>
       <c r="G156" s="34" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H156" s="34" t="s">
         <v>40</v>
@@ -8747,7 +8768,7 @@
         <v>200</v>
       </c>
       <c r="G157" s="34" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H157" s="34" t="s">
         <v>40</v>
@@ -8784,7 +8805,7 @@
         <v>1000</v>
       </c>
       <c r="G158" s="34" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H158" s="34" t="s">
         <v>39</v>
@@ -8821,7 +8842,7 @@
         <v>1000</v>
       </c>
       <c r="G159" s="34" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H159" s="34" t="s">
         <v>59</v>
@@ -8858,7 +8879,7 @@
         <v>3000</v>
       </c>
       <c r="G160" s="34" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H160" s="34" t="s">
         <v>31</v>
@@ -8895,7 +8916,7 @@
         <v>3900</v>
       </c>
       <c r="G161" s="34" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H161" s="34" t="s">
         <v>31</v>
@@ -8932,10 +8953,10 @@
         <v>0</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -8974,7 +8995,7 @@
         <v>300</v>
       </c>
       <c r="G163" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H163" s="4" t="s">
         <v>29</v>
@@ -9010,7 +9031,7 @@
         <v>600</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H164" s="4" t="s">
         <v>40</v>
@@ -9046,7 +9067,7 @@
         <v>200</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H165" s="4" t="s">
         <v>40</v>
@@ -9082,7 +9103,7 @@
         <v>1000</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H166" s="4" t="s">
         <v>39</v>
@@ -9118,7 +9139,7 @@
         <v>1000</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H167" s="4" t="s">
         <v>62</v>
@@ -9154,7 +9175,7 @@
         <v>3000</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H168" s="4" t="s">
         <v>31</v>
@@ -9184,13 +9205,13 @@
         <v>30</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F169">
         <v>3900</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H169" s="4" t="s">
         <v>31</v>
@@ -9226,10 +9247,10 @@
         <v>0</v>
       </c>
       <c r="G170" s="34" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H170" s="34" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I170" s="31">
         <v>0</v>
@@ -9268,7 +9289,7 @@
         <v>100</v>
       </c>
       <c r="G171" s="31" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H171" s="34" t="s">
         <v>29</v>
@@ -9305,7 +9326,7 @@
         <v>300</v>
       </c>
       <c r="G172" s="34" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H172" s="34" t="s">
         <v>40</v>
@@ -9342,7 +9363,7 @@
         <v>200</v>
       </c>
       <c r="G173" s="34" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H173" s="34" t="s">
         <v>40</v>
@@ -9379,7 +9400,7 @@
         <v>1500</v>
       </c>
       <c r="G174" s="34" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H174" s="34" t="s">
         <v>39</v>
@@ -9416,7 +9437,7 @@
         <v>1000</v>
       </c>
       <c r="G175" s="34" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H175" s="34" t="s">
         <v>63</v>
@@ -9453,7 +9474,7 @@
         <v>3000</v>
       </c>
       <c r="G176" s="34" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H176" s="34" t="s">
         <v>31</v>
@@ -9490,7 +9511,7 @@
         <v>3900</v>
       </c>
       <c r="G177" s="34" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H177" s="34" t="s">
         <v>31</v>
@@ -9527,10 +9548,10 @@
         <v>0</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -9569,7 +9590,7 @@
         <v>500</v>
       </c>
       <c r="G179" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H179" s="4" t="s">
         <v>29</v>
@@ -9605,7 +9626,7 @@
         <v>50</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H180" s="4" t="s">
         <v>40</v>
@@ -9641,7 +9662,7 @@
         <v>50</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H181" s="4" t="s">
         <v>40</v>
@@ -9677,7 +9698,7 @@
         <v>1000</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H182" s="4" t="s">
         <v>39</v>
@@ -9713,7 +9734,7 @@
         <v>1500</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H183" s="4" t="s">
         <v>39</v>
@@ -9749,7 +9770,7 @@
         <v>3000</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H184" s="4" t="s">
         <v>31</v>
@@ -9785,7 +9806,7 @@
         <v>3900</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H185" s="4" t="s">
         <v>31</v>
@@ -9821,10 +9842,10 @@
         <v>0</v>
       </c>
       <c r="G186" s="34" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H186" s="34" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I186" s="31">
         <v>1</v>
@@ -9901,7 +9922,7 @@
         <v>50</v>
       </c>
       <c r="G188" s="34" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H188" s="34" t="s">
         <v>40</v>
@@ -9938,7 +9959,7 @@
         <v>50</v>
       </c>
       <c r="G189" s="34" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H189" s="34" t="s">
         <v>40</v>
@@ -9975,7 +9996,7 @@
         <v>1000</v>
       </c>
       <c r="G190" s="34" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H190" s="34" t="s">
         <v>39</v>
@@ -10012,7 +10033,7 @@
         <v>1500</v>
       </c>
       <c r="G191" s="34" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H191" s="34" t="s">
         <v>63</v>
@@ -10049,7 +10070,7 @@
         <v>3000</v>
       </c>
       <c r="G192" s="34" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H192" s="34" t="s">
         <v>31</v>
@@ -10086,7 +10107,7 @@
         <v>3900</v>
       </c>
       <c r="G193" s="34" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H193" s="34" t="s">
         <v>31</v>

--- a/config_Release/fish_3d_caijin_config.xlsx
+++ b/config_Release/fish_3d_caijin_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="Common|通用" sheetId="8" r:id="rId1"/>
@@ -1229,10 +1229,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>20,22,23,24,25,26,27,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_3d_fish_lock</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1361,6 +1357,10 @@
   </si>
   <si>
     <t>鱼币*820000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,22,23,24,25,26,27,63,64,65,66,67,68,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1967,8 +1967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2003,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="C2" s="1">
         <v>0.05</v>
@@ -2899,7 +2899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+    <sheetView topLeftCell="A169" workbookViewId="0">
       <selection activeCell="G192" sqref="G192"/>
     </sheetView>
   </sheetViews>
@@ -2979,7 +2979,7 @@
         <v>231</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I2" s="17">
         <v>0</v>
@@ -3185,7 +3185,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F8" s="17">
         <v>2800</v>
@@ -3217,7 +3217,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>96</v>
@@ -3263,7 +3263,7 @@
         <v>226</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I10" s="22">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>233</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I18" s="27">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>238</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I26" s="31">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>244</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -4468,7 +4468,7 @@
         <v>251</v>
       </c>
       <c r="H42" s="51" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I42" s="47">
         <v>0</v>
@@ -4507,7 +4507,7 @@
         <v>500</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H43" s="34" t="s">
         <v>29</v>
@@ -4581,7 +4581,7 @@
         <v>80</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H45" s="34" t="s">
         <v>40</v>
@@ -4612,13 +4612,13 @@
         <v>30</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F46" s="31">
         <v>1440</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H46" s="34" t="s">
         <v>39</v>
@@ -4649,13 +4649,13 @@
         <v>30</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F47" s="31">
         <v>1000</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H47" s="34" t="s">
         <v>54</v>
@@ -4686,13 +4686,13 @@
         <v>30</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F48" s="31">
         <v>3000</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H48" s="34" t="s">
         <v>31</v>
@@ -4769,7 +4769,7 @@
         <v>233</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4982,13 +4982,13 @@
         <v>30</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F56">
         <v>3000</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>31</v>
@@ -5018,13 +5018,13 @@
         <v>30</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F57">
         <v>3500</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>31</v>
@@ -5063,7 +5063,7 @@
         <v>244</v>
       </c>
       <c r="H58" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I58" s="31">
         <v>0</v>
@@ -5364,7 +5364,7 @@
         <v>259</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -5613,13 +5613,13 @@
         <v>30</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F73">
         <v>3900</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>31</v>
@@ -5658,7 +5658,7 @@
         <v>261</v>
       </c>
       <c r="H74" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I74" s="31">
         <v>0</v>
@@ -5728,7 +5728,7 @@
         <v>30</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F76" s="31">
         <v>300</v>
@@ -5765,7 +5765,7 @@
         <v>30</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F77" s="31">
         <v>200</v>
@@ -5839,7 +5839,7 @@
         <v>30</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F79" s="31">
         <v>1000</v>
@@ -5876,7 +5876,7 @@
         <v>30</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F80" s="31">
         <v>3000</v>
@@ -5913,7 +5913,7 @@
         <v>30</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F81" s="31">
         <v>3900</v>
@@ -5959,7 +5959,7 @@
         <v>266</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -6253,7 +6253,7 @@
         <v>272</v>
       </c>
       <c r="H90" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I90" s="31">
         <v>0</v>
@@ -6554,7 +6554,7 @@
         <v>259</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I98" s="13">
         <v>0</v>
@@ -6661,13 +6661,13 @@
         <v>30</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F101" s="13">
         <v>200</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H101" s="16" t="s">
         <v>40</v>
@@ -6704,7 +6704,7 @@
         <v>1000</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H102" s="16" t="s">
         <v>39</v>
@@ -6741,7 +6741,7 @@
         <v>1000</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H103" s="16" t="s">
         <v>56</v>
@@ -6778,7 +6778,7 @@
         <v>3000</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H104" s="16" t="s">
         <v>31</v>
@@ -6809,13 +6809,13 @@
         <v>30</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F105" s="13">
         <v>3500</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H105" s="16" t="s">
         <v>31</v>
@@ -6855,7 +6855,7 @@
         <v>281</v>
       </c>
       <c r="H106" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I106" s="31">
         <v>0</v>
@@ -7156,7 +7156,7 @@
         <v>286</v>
       </c>
       <c r="H114" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I114" s="13">
         <v>0</v>
@@ -7457,7 +7457,7 @@
         <v>293</v>
       </c>
       <c r="H122" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I122" s="31">
         <v>0</v>
@@ -7758,7 +7758,7 @@
         <v>300</v>
       </c>
       <c r="H130" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I130" s="13">
         <v>0</v>
@@ -8059,7 +8059,7 @@
         <v>304</v>
       </c>
       <c r="H138" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I138" s="31">
         <v>0</v>
@@ -8361,7 +8361,7 @@
         <v>261</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -8655,7 +8655,7 @@
         <v>266</v>
       </c>
       <c r="H154" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I154" s="31">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>286</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -9205,7 +9205,7 @@
         <v>30</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F169">
         <v>3900</v>
@@ -9250,7 +9250,7 @@
         <v>293</v>
       </c>
       <c r="H170" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I170" s="31">
         <v>0</v>
@@ -9551,7 +9551,7 @@
         <v>300</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -9845,7 +9845,7 @@
         <v>319</v>
       </c>
       <c r="H186" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I186" s="31">
         <v>1</v>
